--- a/outputs/hyperparam_search_mnist_train_grouped_analysis.xlsx
+++ b/outputs/hyperparam_search_mnist_train_grouped_analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-rmadhavan\projects\curvatureStep\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76D2A3-55CE-41CD-99D5-C3B12B41884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEE8CB0-129D-478C-9EF1-1E521364A6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="10200" activeTab="1" xr2:uid="{923E0CDC-C3D7-421B-8369-4E0352F35392}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" activeTab="1" xr2:uid="{923E0CDC-C3D7-421B-8369-4E0352F35392}"/>
   </bookViews>
   <sheets>
     <sheet name="hyperparam_search_mnist_train_g" sheetId="1" r:id="rId1"/>
-    <sheet name="curvature" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="curvature" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="52">
   <si>
     <t>Optimizer Name</t>
   </si>
@@ -135,30 +136,6 @@
     <t>minPerSet</t>
   </si>
   <si>
-    <t>Mean Training Loss epoch1 Curvature</t>
-  </si>
-  <si>
-    <t>Mean Training Loss epoch1 NoCurvature</t>
-  </si>
-  <si>
-    <t>Mean Training Loss epoch2 Curvature</t>
-  </si>
-  <si>
-    <t>Mean Training Loss epoch2 NoCurvature</t>
-  </si>
-  <si>
-    <t>Std Training Loss epoch1 Curvature</t>
-  </si>
-  <si>
-    <t>Std Training Loss epoch1 NoCurvature</t>
-  </si>
-  <si>
-    <t>Std Training Loss epoch2 Curvature</t>
-  </si>
-  <si>
-    <t>Std Training Loss epoch2 NoCurvature</t>
-  </si>
-  <si>
     <t>Curvature Better Epoch 1</t>
   </si>
   <si>
@@ -188,6 +165,33 @@
   <si>
     <t>Epoch 2 Curvature Wins</t>
   </si>
+  <si>
+    <t>Mean_Training_Loss_epoch1_Curvature</t>
+  </si>
+  <si>
+    <t>Mean_Training_Loss_epoch1_NoCurvature</t>
+  </si>
+  <si>
+    <t>Mean_Training_Loss_epoch2_Curvature</t>
+  </si>
+  <si>
+    <t>Mean_Training_Loss_epoch2_NoCurvature</t>
+  </si>
+  <si>
+    <t>Std_Training_Loss_epoch1_Curvature</t>
+  </si>
+  <si>
+    <t>Std_Training_Loss_epoch1_NoCurvature</t>
+  </si>
+  <si>
+    <t>Std_Training_Loss_epoch2_Curvature</t>
+  </si>
+  <si>
+    <t>Std_Training_Loss_epoch2_NoCurvature</t>
+  </si>
+  <si>
+    <t>ShampooCurvature</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +203,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +337,18 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -677,7 +693,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -688,6 +704,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1064,15 +1087,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795A4B6F-1BCB-40C4-B61A-C9B66AA1F181}">
-  <dimension ref="A1:J421"/>
+  <dimension ref="A1:J441"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView topLeftCell="A399" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H408" sqref="H408"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.9296875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.46484375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.46484375" style="1" bestFit="1" customWidth="1"/>
@@ -1080,8 +1103,8 @@
     <col min="7" max="8" width="9.46484375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1106,8 +1129,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -1126,11 +1149,11 @@
         <v>2.6026999999999999E-3</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G33" si="0">IF($A2=$A1,"",MIN(C2:C21))</f>
+        <f>IF($A2=$A1,"",MIN(C2:C21))</f>
         <v>0.37631999999999999</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H33" si="1">IF($A2=$A1,"",MIN(D2:D21))</f>
+        <f t="shared" ref="H2:H33" si="0">IF($A2=$A1,"",MIN(D2:D21))</f>
         <v>0.18178</v>
       </c>
       <c r="I2" s="5">
@@ -1142,8 +1165,8 @@
         <v>0.15737000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -1162,16 +1185,16 @@
         <v>3.3633000000000001E-3</v>
       </c>
       <c r="G3" s="1" t="str">
+        <f t="shared" ref="G2:G33" si="1">IF($A3=$A2,"",MIN(C3:C22))</f>
+        <v/>
+      </c>
+      <c r="H3" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -1190,16 +1213,16 @@
         <v>3.7276000000000002E-3</v>
       </c>
       <c r="G4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -1218,16 +1241,16 @@
         <v>3.3207000000000002E-3</v>
       </c>
       <c r="G5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6">
@@ -1246,16 +1269,16 @@
         <v>2.7536000000000001E-3</v>
       </c>
       <c r="G6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H6" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1274,16 +1297,16 @@
         <v>3.7336000000000001E-3</v>
       </c>
       <c r="G7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H7" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -1302,16 +1325,16 @@
         <v>4.6912000000000004E-3</v>
       </c>
       <c r="G8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B9">
@@ -1330,16 +1353,16 @@
         <v>3.2808999999999998E-3</v>
       </c>
       <c r="G9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -1358,16 +1381,16 @@
         <v>4.1736999999999998E-3</v>
       </c>
       <c r="G10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B11">
@@ -1386,16 +1409,16 @@
         <v>4.6013E-3</v>
       </c>
       <c r="G11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B12">
@@ -1414,16 +1437,16 @@
         <v>4.6013E-3</v>
       </c>
       <c r="G12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B13">
@@ -1442,16 +1465,16 @@
         <v>3.4564000000000001E-3</v>
       </c>
       <c r="G13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B14">
@@ -1470,16 +1493,16 @@
         <v>3.8603999999999999E-3</v>
       </c>
       <c r="G14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B15">
@@ -1498,16 +1521,16 @@
         <v>5.1926000000000003E-3</v>
       </c>
       <c r="G15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B16">
@@ -1526,16 +1549,16 @@
         <v>3.8779999999999999E-3</v>
       </c>
       <c r="G16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B17">
@@ -1554,16 +1577,16 @@
         <v>4.1240000000000001E-3</v>
       </c>
       <c r="G17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B18">
@@ -1582,16 +1605,16 @@
         <v>4.7590000000000002E-3</v>
       </c>
       <c r="G18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B19">
@@ -1610,16 +1633,16 @@
         <v>4.8602000000000003E-3</v>
       </c>
       <c r="G19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H19" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B20">
@@ -1638,16 +1661,16 @@
         <v>6.8830000000000002E-3</v>
       </c>
       <c r="G20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B21">
@@ -1666,16 +1689,16 @@
         <v>3.9927000000000001E-3</v>
       </c>
       <c r="G21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B22">
@@ -1694,16 +1717,16 @@
         <v>3.0262000000000002E-3</v>
       </c>
       <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37587999999999999</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.37587999999999999</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="1"/>
         <v>0.18179000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B23">
@@ -1722,16 +1745,16 @@
         <v>3.4597E-3</v>
       </c>
       <c r="G23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B24">
@@ -1750,16 +1773,16 @@
         <v>2.7913E-3</v>
       </c>
       <c r="G24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B25">
@@ -1778,16 +1801,16 @@
         <v>2.7596999999999999E-3</v>
       </c>
       <c r="G25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B26">
@@ -1806,16 +1829,16 @@
         <v>3.1725999999999998E-3</v>
       </c>
       <c r="G26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B27">
@@ -1834,16 +1857,16 @@
         <v>2.6946000000000001E-3</v>
       </c>
       <c r="G27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B28">
@@ -1862,16 +1885,16 @@
         <v>4.3074000000000003E-3</v>
       </c>
       <c r="G28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B29">
@@ -1890,16 +1913,16 @@
         <v>2.5355999999999998E-3</v>
       </c>
       <c r="G29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H29" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B30">
@@ -1918,16 +1941,16 @@
         <v>4.2471000000000002E-3</v>
       </c>
       <c r="G30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H30" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B31">
@@ -1946,16 +1969,16 @@
         <v>5.1357E-3</v>
       </c>
       <c r="G31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H31" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B32">
@@ -1974,16 +1997,16 @@
         <v>5.5697999999999998E-3</v>
       </c>
       <c r="G32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H32" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B33">
@@ -2002,16 +2025,16 @@
         <v>3.7315999999999998E-3</v>
       </c>
       <c r="G33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B34">
@@ -2038,8 +2061,8 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B35">
@@ -2066,8 +2089,8 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B36">
@@ -2094,8 +2117,8 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B37">
@@ -2122,8 +2145,8 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B38">
@@ -2150,8 +2173,8 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B39">
@@ -2178,8 +2201,8 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B40">
@@ -2206,8 +2229,8 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B41">
@@ -2234,8 +2257,8 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B42">
@@ -2262,8 +2285,8 @@
         <v>0.16891999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B43">
@@ -2290,8 +2313,8 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B44">
@@ -2318,8 +2341,8 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B45">
@@ -2346,8 +2369,8 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B46">
@@ -2374,8 +2397,8 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B47">
@@ -2402,8 +2425,8 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B48">
@@ -2430,8 +2453,8 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B49">
@@ -2458,8 +2481,8 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B50">
@@ -2486,8 +2509,8 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B51">
@@ -2514,8 +2537,8 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B52">
@@ -2542,8 +2565,8 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B53">
@@ -2570,8 +2593,8 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B54">
@@ -2598,8 +2621,8 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B55">
@@ -2626,8 +2649,8 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B56">
@@ -2654,8 +2677,8 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B57">
@@ -2682,8 +2705,8 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B58">
@@ -2710,8 +2733,8 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B59">
@@ -2738,8 +2761,8 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B60">
@@ -2766,8 +2789,8 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B61">
@@ -2794,8 +2817,8 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B62">
@@ -2822,8 +2845,8 @@
         <v>0.16971</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B63">
@@ -2850,8 +2873,8 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B64">
@@ -2878,8 +2901,8 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B65">
@@ -2906,8 +2929,8 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B66">
@@ -2926,16 +2949,16 @@
         <v>4.9516999999999999E-3</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f t="shared" ref="G66:G97" si="4">IF($A66=$A65,"",MIN(C66:C85))</f>
+        <f t="shared" ref="G66:G81" si="4">IF($A66=$A65,"",MIN(C66:C85))</f>
         <v/>
       </c>
       <c r="H66" s="1" t="str">
-        <f t="shared" ref="H66:H97" si="5">IF($A66=$A65,"",MIN(D66:D85))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+        <f t="shared" ref="H66:H81" si="5">IF($A66=$A65,"",MIN(D66:D85))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B67">
@@ -2962,8 +2985,8 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B68">
@@ -2990,8 +3013,8 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+    <row r="69" spans="1:8">
+      <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B69">
@@ -3018,8 +3041,8 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B70">
@@ -3046,8 +3069,8 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+    <row r="71" spans="1:8">
+      <c r="A71" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B71">
@@ -3074,8 +3097,8 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B72">
@@ -3102,8 +3125,8 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+    <row r="73" spans="1:8">
+      <c r="A73" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B73">
@@ -3130,8 +3153,8 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B74">
@@ -3158,8 +3181,8 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+    <row r="75" spans="1:8">
+      <c r="A75" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B75">
@@ -3186,8 +3209,8 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+    <row r="76" spans="1:8">
+      <c r="A76" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B76">
@@ -3214,8 +3237,8 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+    <row r="77" spans="1:8">
+      <c r="A77" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B77">
@@ -3242,8 +3265,8 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+    <row r="78" spans="1:8">
+      <c r="A78" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B78">
@@ -3270,8 +3293,8 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+    <row r="79" spans="1:8">
+      <c r="A79" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B79">
@@ -3298,8 +3321,8 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+    <row r="80" spans="1:8">
+      <c r="A80" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B80">
@@ -3326,8 +3349,8 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+    <row r="81" spans="1:8">
+      <c r="A81" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B81">
@@ -3354,8 +3377,8 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+    <row r="82" spans="1:8">
+      <c r="A82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B82">
@@ -3382,8 +3405,8 @@
         <v>0.27565000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+    <row r="83" spans="1:8">
+      <c r="A83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B83">
@@ -3410,8 +3433,8 @@
         <v>0.27548</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+    <row r="84" spans="1:8">
+      <c r="A84" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B84">
@@ -3438,8 +3461,8 @@
         <v>0.18168000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+    <row r="85" spans="1:8">
+      <c r="A85" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B85">
@@ -3466,8 +3489,8 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+    <row r="86" spans="1:8">
+      <c r="A86" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B86">
@@ -3494,8 +3517,8 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+    <row r="87" spans="1:8">
+      <c r="A87" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B87">
@@ -3522,8 +3545,8 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+    <row r="88" spans="1:8">
+      <c r="A88" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B88">
@@ -3550,8 +3573,8 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+    <row r="89" spans="1:8">
+      <c r="A89" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B89">
@@ -3578,8 +3601,8 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+    <row r="90" spans="1:8">
+      <c r="A90" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B90">
@@ -3606,8 +3629,8 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+    <row r="91" spans="1:8">
+      <c r="A91" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B91">
@@ -3634,8 +3657,8 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+    <row r="92" spans="1:8">
+      <c r="A92" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B92">
@@ -3662,8 +3685,8 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+    <row r="93" spans="1:8">
+      <c r="A93" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B93">
@@ -3690,8 +3713,8 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
+    <row r="94" spans="1:8">
+      <c r="A94" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B94">
@@ -3718,8 +3741,8 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
+    <row r="95" spans="1:8">
+      <c r="A95" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B95">
@@ -3746,8 +3769,8 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+    <row r="96" spans="1:8">
+      <c r="A96" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B96">
@@ -3774,8 +3797,8 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+    <row r="97" spans="1:8">
+      <c r="A97" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B97">
@@ -3802,8 +3825,8 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+    <row r="98" spans="1:8">
+      <c r="A98" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B98">
@@ -3830,8 +3853,8 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
+    <row r="99" spans="1:8">
+      <c r="A99" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B99">
@@ -3858,8 +3881,8 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
+    <row r="100" spans="1:8">
+      <c r="A100" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B100">
@@ -3886,8 +3909,8 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
+    <row r="101" spans="1:8">
+      <c r="A101" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B101">
@@ -3914,8 +3937,8 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
+    <row r="102" spans="1:8">
+      <c r="A102" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B102">
@@ -3942,8 +3965,8 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+    <row r="103" spans="1:8">
+      <c r="A103" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B103">
@@ -3970,8 +3993,8 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+    <row r="104" spans="1:8">
+      <c r="A104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B104">
@@ -3998,8 +4021,8 @@
         <v>0.18210999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+    <row r="105" spans="1:8">
+      <c r="A105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B105">
@@ -4026,8 +4049,8 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
+    <row r="106" spans="1:8">
+      <c r="A106" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B106">
@@ -4054,8 +4077,8 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
+    <row r="107" spans="1:8">
+      <c r="A107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B107">
@@ -4082,8 +4105,8 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+    <row r="108" spans="1:8">
+      <c r="A108" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B108">
@@ -4110,8 +4133,8 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+    <row r="109" spans="1:8">
+      <c r="A109" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B109">
@@ -4138,8 +4161,8 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
+    <row r="110" spans="1:8">
+      <c r="A110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B110">
@@ -4166,8 +4189,8 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+    <row r="111" spans="1:8">
+      <c r="A111" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B111">
@@ -4194,8 +4217,8 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
+    <row r="112" spans="1:8">
+      <c r="A112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B112">
@@ -4222,8 +4245,8 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
+    <row r="113" spans="1:8">
+      <c r="A113" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B113">
@@ -4250,8 +4273,8 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
+    <row r="114" spans="1:8">
+      <c r="A114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B114">
@@ -4278,8 +4301,8 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+    <row r="115" spans="1:8">
+      <c r="A115" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B115">
@@ -4306,8 +4329,8 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
+    <row r="116" spans="1:8">
+      <c r="A116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B116">
@@ -4334,8 +4357,8 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
+    <row r="117" spans="1:8">
+      <c r="A117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B117">
@@ -4362,8 +4385,8 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
+    <row r="118" spans="1:8">
+      <c r="A118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B118">
@@ -4390,8 +4413,8 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
+    <row r="119" spans="1:8">
+      <c r="A119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B119">
@@ -4418,8 +4441,8 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
+    <row r="120" spans="1:8">
+      <c r="A120" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B120">
@@ -4446,8 +4469,8 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
+    <row r="121" spans="1:8">
+      <c r="A121" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B121">
@@ -4474,8 +4497,8 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
+    <row r="122" spans="1:8">
+      <c r="A122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B122">
@@ -4502,8 +4525,8 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
+    <row r="123" spans="1:8">
+      <c r="A123" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B123">
@@ -4530,8 +4553,8 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+    <row r="124" spans="1:8">
+      <c r="A124" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B124">
@@ -4558,8 +4581,8 @@
         <v>0.18223</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
+    <row r="125" spans="1:8">
+      <c r="A125" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B125">
@@ -4586,8 +4609,8 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
+    <row r="126" spans="1:8">
+      <c r="A126" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B126">
@@ -4614,8 +4637,8 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
+    <row r="127" spans="1:8">
+      <c r="A127" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B127">
@@ -4642,8 +4665,8 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
+    <row r="128" spans="1:8">
+      <c r="A128" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B128">
@@ -4670,8 +4693,8 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
+    <row r="129" spans="1:8">
+      <c r="A129" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B129">
@@ -4698,8 +4721,8 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
+    <row r="130" spans="1:8">
+      <c r="A130" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B130">
@@ -4726,8 +4749,8 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
+    <row r="131" spans="1:8">
+      <c r="A131" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B131">
@@ -4754,8 +4777,8 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
+    <row r="132" spans="1:8">
+      <c r="A132" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B132">
@@ -4782,8 +4805,8 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
+    <row r="133" spans="1:8">
+      <c r="A133" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B133">
@@ -4810,8 +4833,8 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
+    <row r="134" spans="1:8">
+      <c r="A134" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B134">
@@ -4838,8 +4861,8 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
+    <row r="135" spans="1:8">
+      <c r="A135" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B135">
@@ -4866,8 +4889,8 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
+    <row r="136" spans="1:8">
+      <c r="A136" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B136">
@@ -4894,8 +4917,8 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
+    <row r="137" spans="1:8">
+      <c r="A137" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B137">
@@ -4922,8 +4945,8 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
+    <row r="138" spans="1:8">
+      <c r="A138" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B138">
@@ -4950,8 +4973,8 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A139" t="s">
+    <row r="139" spans="1:8">
+      <c r="A139" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B139">
@@ -4978,8 +5001,8 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
+    <row r="140" spans="1:8">
+      <c r="A140" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B140">
@@ -5006,8 +5029,8 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
+    <row r="141" spans="1:8">
+      <c r="A141" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B141">
@@ -5034,8 +5057,8 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
+    <row r="142" spans="1:8">
+      <c r="A142" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B142">
@@ -5062,8 +5085,8 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
+    <row r="143" spans="1:8">
+      <c r="A143" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B143">
@@ -5090,8 +5113,8 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
+    <row r="144" spans="1:8">
+      <c r="A144" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B144">
@@ -5118,8 +5141,8 @@
         <v>0.18240999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
+    <row r="145" spans="1:8">
+      <c r="A145" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B145">
@@ -5146,8 +5169,8 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
+    <row r="146" spans="1:8">
+      <c r="A146" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B146">
@@ -5174,8 +5197,8 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
+    <row r="147" spans="1:8">
+      <c r="A147" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B147">
@@ -5202,8 +5225,8 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
+    <row r="148" spans="1:8">
+      <c r="A148" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B148">
@@ -5230,8 +5253,8 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
+    <row r="149" spans="1:8">
+      <c r="A149" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B149">
@@ -5258,8 +5281,8 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
+    <row r="150" spans="1:8">
+      <c r="A150" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B150">
@@ -5286,8 +5309,8 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
+    <row r="151" spans="1:8">
+      <c r="A151" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B151">
@@ -5314,8 +5337,8 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
+    <row r="152" spans="1:8">
+      <c r="A152" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B152">
@@ -5342,8 +5365,8 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
+    <row r="153" spans="1:8">
+      <c r="A153" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B153">
@@ -5370,8 +5393,8 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
+    <row r="154" spans="1:8">
+      <c r="A154" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B154">
@@ -5398,8 +5421,8 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
+    <row r="155" spans="1:8">
+      <c r="A155" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B155">
@@ -5426,8 +5449,8 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
+    <row r="156" spans="1:8">
+      <c r="A156" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B156">
@@ -5454,8 +5477,8 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
+    <row r="157" spans="1:8">
+      <c r="A157" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B157">
@@ -5482,8 +5505,8 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
+    <row r="158" spans="1:8">
+      <c r="A158" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B158">
@@ -5510,8 +5533,8 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
+    <row r="159" spans="1:8">
+      <c r="A159" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B159">
@@ -5538,8 +5561,8 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
+    <row r="160" spans="1:8">
+      <c r="A160" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B160">
@@ -5566,8 +5589,8 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
+    <row r="161" spans="1:8">
+      <c r="A161" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B161">
@@ -5594,8 +5617,8 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
+    <row r="162" spans="1:8">
+      <c r="A162" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B162">
@@ -5622,8 +5645,8 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
+    <row r="163" spans="1:8">
+      <c r="A163" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B163">
@@ -5650,8 +5673,8 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
+    <row r="164" spans="1:8">
+      <c r="A164" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B164">
@@ -5678,8 +5701,8 @@
         <v>0.31667000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
+    <row r="165" spans="1:8">
+      <c r="A165" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B165">
@@ -5706,8 +5729,8 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
+    <row r="166" spans="1:8">
+      <c r="A166" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B166">
@@ -5734,8 +5757,8 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
+    <row r="167" spans="1:8">
+      <c r="A167" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B167">
@@ -5762,8 +5785,8 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
+    <row r="168" spans="1:8">
+      <c r="A168" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B168">
@@ -5790,8 +5813,8 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
+    <row r="169" spans="1:8">
+      <c r="A169" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B169">
@@ -5818,8 +5841,8 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
+    <row r="170" spans="1:8">
+      <c r="A170" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B170">
@@ -5846,8 +5869,8 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
+    <row r="171" spans="1:8">
+      <c r="A171" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B171">
@@ -5874,8 +5897,8 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
+    <row r="172" spans="1:8">
+      <c r="A172" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B172">
@@ -5902,8 +5925,8 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
+    <row r="173" spans="1:8">
+      <c r="A173" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B173">
@@ -5930,8 +5953,8 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
+    <row r="174" spans="1:8">
+      <c r="A174" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B174">
@@ -5958,8 +5981,8 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
+    <row r="175" spans="1:8">
+      <c r="A175" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B175">
@@ -5986,8 +6009,8 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
+    <row r="176" spans="1:8">
+      <c r="A176" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B176">
@@ -6014,8 +6037,8 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
+    <row r="177" spans="1:8">
+      <c r="A177" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B177">
@@ -6042,8 +6065,8 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
+    <row r="178" spans="1:8">
+      <c r="A178" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B178">
@@ -6070,8 +6093,8 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
+    <row r="179" spans="1:8">
+      <c r="A179" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B179">
@@ -6098,8 +6121,8 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
+    <row r="180" spans="1:8">
+      <c r="A180" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B180">
@@ -6126,8 +6149,8 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
+    <row r="181" spans="1:8">
+      <c r="A181" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B181">
@@ -6154,8 +6177,8 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
+    <row r="182" spans="1:8">
+      <c r="A182" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B182">
@@ -6182,8 +6205,8 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
+    <row r="183" spans="1:8">
+      <c r="A183" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B183">
@@ -6210,8 +6233,8 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
+    <row r="184" spans="1:8">
+      <c r="A184" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B184">
@@ -6238,8 +6261,8 @@
         <v>0.15740000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A185" t="s">
+    <row r="185" spans="1:8">
+      <c r="A185" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B185">
@@ -6266,8 +6289,8 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
+    <row r="186" spans="1:8">
+      <c r="A186" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B186">
@@ -6294,8 +6317,8 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
+    <row r="187" spans="1:8">
+      <c r="A187" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B187">
@@ -6322,8 +6345,8 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A188" t="s">
+    <row r="188" spans="1:8">
+      <c r="A188" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B188">
@@ -6350,8 +6373,8 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A189" t="s">
+    <row r="189" spans="1:8">
+      <c r="A189" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B189">
@@ -6378,8 +6401,8 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A190" t="s">
+    <row r="190" spans="1:8">
+      <c r="A190" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B190">
@@ -6406,8 +6429,8 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A191" t="s">
+    <row r="191" spans="1:8">
+      <c r="A191" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B191">
@@ -6434,8 +6457,8 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A192" t="s">
+    <row r="192" spans="1:8">
+      <c r="A192" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B192">
@@ -6462,8 +6485,8 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
+    <row r="193" spans="1:8">
+      <c r="A193" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B193">
@@ -6490,8 +6513,8 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A194" t="s">
+    <row r="194" spans="1:8">
+      <c r="A194" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B194">
@@ -6518,8 +6541,8 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A195" t="s">
+    <row r="195" spans="1:8">
+      <c r="A195" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B195">
@@ -6546,8 +6569,8 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A196" t="s">
+    <row r="196" spans="1:8">
+      <c r="A196" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B196">
@@ -6574,8 +6597,8 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
+    <row r="197" spans="1:8">
+      <c r="A197" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B197">
@@ -6602,8 +6625,8 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
+    <row r="198" spans="1:8">
+      <c r="A198" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B198">
@@ -6630,8 +6653,8 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
+    <row r="199" spans="1:8">
+      <c r="A199" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B199">
@@ -6658,8 +6681,8 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A200" t="s">
+    <row r="200" spans="1:8">
+      <c r="A200" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B200">
@@ -6686,8 +6709,8 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A201" t="s">
+    <row r="201" spans="1:8">
+      <c r="A201" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B201">
@@ -6714,8 +6737,8 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A202" t="s">
+    <row r="202" spans="1:8">
+      <c r="A202" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B202">
@@ -6742,8 +6765,8 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A203" t="s">
+    <row r="203" spans="1:8">
+      <c r="A203" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B203">
@@ -6770,8 +6793,8 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A204" t="s">
+    <row r="204" spans="1:8">
+      <c r="A204" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B204">
@@ -6798,8 +6821,8 @@
         <v>0.31664999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A205" t="s">
+    <row r="205" spans="1:8">
+      <c r="A205" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B205">
@@ -6826,8 +6849,8 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A206" t="s">
+    <row r="206" spans="1:8">
+      <c r="A206" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B206">
@@ -6854,8 +6877,8 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A207" t="s">
+    <row r="207" spans="1:8">
+      <c r="A207" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B207">
@@ -6882,8 +6905,8 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A208" t="s">
+    <row r="208" spans="1:8">
+      <c r="A208" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B208">
@@ -6910,8 +6933,8 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A209" t="s">
+    <row r="209" spans="1:8">
+      <c r="A209" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B209">
@@ -6938,8 +6961,8 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A210" t="s">
+    <row r="210" spans="1:8">
+      <c r="A210" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B210">
@@ -6966,8 +6989,8 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A211" t="s">
+    <row r="211" spans="1:8">
+      <c r="A211" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B211">
@@ -6994,8 +7017,8 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A212" t="s">
+    <row r="212" spans="1:8">
+      <c r="A212" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B212">
@@ -7022,8 +7045,8 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A213" t="s">
+    <row r="213" spans="1:8">
+      <c r="A213" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B213">
@@ -7050,8 +7073,8 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A214" t="s">
+    <row r="214" spans="1:8">
+      <c r="A214" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B214">
@@ -7078,8 +7101,8 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A215" t="s">
+    <row r="215" spans="1:8">
+      <c r="A215" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B215">
@@ -7106,8 +7129,8 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A216" t="s">
+    <row r="216" spans="1:8">
+      <c r="A216" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B216">
@@ -7134,8 +7157,8 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A217" t="s">
+    <row r="217" spans="1:8">
+      <c r="A217" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B217">
@@ -7162,8 +7185,8 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A218" t="s">
+    <row r="218" spans="1:8">
+      <c r="A218" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B218">
@@ -7190,8 +7213,8 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A219" t="s">
+    <row r="219" spans="1:8">
+      <c r="A219" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B219">
@@ -7218,8 +7241,8 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A220" t="s">
+    <row r="220" spans="1:8">
+      <c r="A220" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B220">
@@ -7246,8 +7269,8 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A221" t="s">
+    <row r="221" spans="1:8">
+      <c r="A221" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B221">
@@ -7274,8 +7297,8 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A222" t="s">
+    <row r="222" spans="1:8">
+      <c r="A222" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B222">
@@ -7302,8 +7325,8 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A223" t="s">
+    <row r="223" spans="1:8">
+      <c r="A223" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B223">
@@ -7330,8 +7353,8 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A224" t="s">
+    <row r="224" spans="1:8">
+      <c r="A224" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B224">
@@ -7358,8 +7381,8 @@
         <v>0.15737000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A225" t="s">
+    <row r="225" spans="1:8">
+      <c r="A225" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B225">
@@ -7386,8 +7409,8 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A226" t="s">
+    <row r="226" spans="1:8">
+      <c r="A226" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B226">
@@ -7414,8 +7437,8 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A227" t="s">
+    <row r="227" spans="1:8">
+      <c r="A227" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B227">
@@ -7442,8 +7465,8 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A228" t="s">
+    <row r="228" spans="1:8">
+      <c r="A228" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B228">
@@ -7470,8 +7493,8 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A229" t="s">
+    <row r="229" spans="1:8">
+      <c r="A229" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B229">
@@ -7498,8 +7521,8 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A230" t="s">
+    <row r="230" spans="1:8">
+      <c r="A230" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B230">
@@ -7526,8 +7549,8 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A231" t="s">
+    <row r="231" spans="1:8">
+      <c r="A231" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B231">
@@ -7554,8 +7577,8 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A232" t="s">
+    <row r="232" spans="1:8">
+      <c r="A232" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B232">
@@ -7582,8 +7605,8 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A233" t="s">
+    <row r="233" spans="1:8">
+      <c r="A233" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B233">
@@ -7610,8 +7633,8 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A234" t="s">
+    <row r="234" spans="1:8">
+      <c r="A234" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B234">
@@ -7638,8 +7661,8 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A235" t="s">
+    <row r="235" spans="1:8">
+      <c r="A235" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B235">
@@ -7666,8 +7689,8 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A236" t="s">
+    <row r="236" spans="1:8">
+      <c r="A236" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B236">
@@ -7694,8 +7717,8 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A237" t="s">
+    <row r="237" spans="1:8">
+      <c r="A237" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B237">
@@ -7722,8 +7745,8 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A238" t="s">
+    <row r="238" spans="1:8">
+      <c r="A238" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B238">
@@ -7750,8 +7773,8 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A239" t="s">
+    <row r="239" spans="1:8">
+      <c r="A239" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B239">
@@ -7778,8 +7801,8 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A240" t="s">
+    <row r="240" spans="1:8">
+      <c r="A240" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B240">
@@ -7806,8 +7829,8 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A241" t="s">
+    <row r="241" spans="1:8">
+      <c r="A241" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B241">
@@ -7834,8 +7857,8 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A242" t="s">
+    <row r="242" spans="1:8">
+      <c r="A242" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B242">
@@ -7862,8 +7885,8 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A243" t="s">
+    <row r="243" spans="1:8">
+      <c r="A243" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B243">
@@ -7890,8 +7913,8 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A244" t="s">
+    <row r="244" spans="1:8">
+      <c r="A244" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B244">
@@ -7918,8 +7941,8 @@
         <v>0.16777</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A245" t="s">
+    <row r="245" spans="1:8">
+      <c r="A245" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B245">
@@ -7946,8 +7969,8 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A246" t="s">
+    <row r="246" spans="1:8">
+      <c r="A246" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B246">
@@ -7974,8 +7997,8 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A247" t="s">
+    <row r="247" spans="1:8">
+      <c r="A247" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B247">
@@ -8002,8 +8025,8 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A248" t="s">
+    <row r="248" spans="1:8">
+      <c r="A248" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B248">
@@ -8030,8 +8053,8 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A249" t="s">
+    <row r="249" spans="1:8">
+      <c r="A249" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B249">
@@ -8058,8 +8081,8 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A250" t="s">
+    <row r="250" spans="1:8">
+      <c r="A250" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B250">
@@ -8086,8 +8109,8 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A251" t="s">
+    <row r="251" spans="1:8">
+      <c r="A251" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B251">
@@ -8114,8 +8137,8 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A252" t="s">
+    <row r="252" spans="1:8">
+      <c r="A252" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B252">
@@ -8142,8 +8165,8 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A253" t="s">
+    <row r="253" spans="1:8">
+      <c r="A253" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B253">
@@ -8170,8 +8193,8 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A254" t="s">
+    <row r="254" spans="1:8">
+      <c r="A254" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B254">
@@ -8198,8 +8221,8 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A255" t="s">
+    <row r="255" spans="1:8">
+      <c r="A255" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B255">
@@ -8226,8 +8249,8 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A256" t="s">
+    <row r="256" spans="1:8">
+      <c r="A256" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B256">
@@ -8254,8 +8277,8 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A257" t="s">
+    <row r="257" spans="1:8">
+      <c r="A257" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B257">
@@ -8282,8 +8305,8 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A258" t="s">
+    <row r="258" spans="1:8">
+      <c r="A258" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B258">
@@ -8310,8 +8333,8 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A259" t="s">
+    <row r="259" spans="1:8">
+      <c r="A259" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B259">
@@ -8338,8 +8361,8 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A260" t="s">
+    <row r="260" spans="1:8">
+      <c r="A260" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B260">
@@ -8366,8 +8389,8 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A261" t="s">
+    <row r="261" spans="1:8">
+      <c r="A261" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B261">
@@ -8394,8 +8417,8 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A262" t="s">
+    <row r="262" spans="1:8">
+      <c r="A262" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B262">
@@ -8422,8 +8445,8 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A263" t="s">
+    <row r="263" spans="1:8">
+      <c r="A263" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B263">
@@ -8450,8 +8473,8 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A264" t="s">
+    <row r="264" spans="1:8">
+      <c r="A264" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B264">
@@ -8478,8 +8501,8 @@
         <v>0.16789000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A265" t="s">
+    <row r="265" spans="1:8">
+      <c r="A265" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B265">
@@ -8506,8 +8529,8 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A266" t="s">
+    <row r="266" spans="1:8">
+      <c r="A266" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B266">
@@ -8534,8 +8557,8 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A267" t="s">
+    <row r="267" spans="1:8">
+      <c r="A267" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B267">
@@ -8562,8 +8585,8 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A268" t="s">
+    <row r="268" spans="1:8">
+      <c r="A268" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B268">
@@ -8590,8 +8613,8 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A269" t="s">
+    <row r="269" spans="1:8">
+      <c r="A269" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B269">
@@ -8618,8 +8641,8 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A270" t="s">
+    <row r="270" spans="1:8">
+      <c r="A270" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B270">
@@ -8646,8 +8669,8 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A271" t="s">
+    <row r="271" spans="1:8">
+      <c r="A271" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B271">
@@ -8674,8 +8697,8 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A272" t="s">
+    <row r="272" spans="1:8">
+      <c r="A272" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B272">
@@ -8702,8 +8725,8 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A273" t="s">
+    <row r="273" spans="1:8">
+      <c r="A273" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B273">
@@ -8730,8 +8753,8 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A274" t="s">
+    <row r="274" spans="1:8">
+      <c r="A274" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B274">
@@ -8758,8 +8781,8 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A275" t="s">
+    <row r="275" spans="1:8">
+      <c r="A275" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B275">
@@ -8786,8 +8809,8 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A276" t="s">
+    <row r="276" spans="1:8">
+      <c r="A276" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B276">
@@ -8814,8 +8837,8 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A277" t="s">
+    <row r="277" spans="1:8">
+      <c r="A277" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B277">
@@ -8842,8 +8865,8 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A278" t="s">
+    <row r="278" spans="1:8">
+      <c r="A278" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B278">
@@ -8870,8 +8893,8 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A279" t="s">
+    <row r="279" spans="1:8">
+      <c r="A279" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B279">
@@ -8898,8 +8921,8 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A280" t="s">
+    <row r="280" spans="1:8">
+      <c r="A280" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B280">
@@ -8926,8 +8949,8 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A281" t="s">
+    <row r="281" spans="1:8">
+      <c r="A281" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B281">
@@ -8954,8 +8977,8 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A282" t="s">
+    <row r="282" spans="1:8">
+      <c r="A282" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B282">
@@ -8982,8 +9005,8 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A283" t="s">
+    <row r="283" spans="1:8">
+      <c r="A283" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B283">
@@ -9010,8 +9033,8 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A284" t="s">
+    <row r="284" spans="1:8">
+      <c r="A284" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B284">
@@ -9038,8 +9061,8 @@
         <v>0.16825000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A285" t="s">
+    <row r="285" spans="1:8">
+      <c r="A285" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B285">
@@ -9066,8 +9089,8 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A286" t="s">
+    <row r="286" spans="1:8">
+      <c r="A286" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B286">
@@ -9094,8 +9117,8 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A287" t="s">
+    <row r="287" spans="1:8">
+      <c r="A287" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B287">
@@ -9122,8 +9145,8 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A288" t="s">
+    <row r="288" spans="1:8">
+      <c r="A288" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B288">
@@ -9150,8 +9173,8 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A289" t="s">
+    <row r="289" spans="1:8">
+      <c r="A289" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B289">
@@ -9178,8 +9201,8 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A290" t="s">
+    <row r="290" spans="1:8">
+      <c r="A290" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B290">
@@ -9206,8 +9229,8 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A291" t="s">
+    <row r="291" spans="1:8">
+      <c r="A291" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B291">
@@ -9234,8 +9257,8 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A292" t="s">
+    <row r="292" spans="1:8">
+      <c r="A292" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B292">
@@ -9262,8 +9285,8 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A293" t="s">
+    <row r="293" spans="1:8">
+      <c r="A293" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B293">
@@ -9290,8 +9313,8 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A294" t="s">
+    <row r="294" spans="1:8">
+      <c r="A294" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B294">
@@ -9318,8 +9341,8 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A295" t="s">
+    <row r="295" spans="1:8">
+      <c r="A295" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B295">
@@ -9346,8 +9369,8 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A296" t="s">
+    <row r="296" spans="1:8">
+      <c r="A296" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B296">
@@ -9374,8 +9397,8 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A297" t="s">
+    <row r="297" spans="1:8">
+      <c r="A297" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B297">
@@ -9402,8 +9425,8 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A298" t="s">
+    <row r="298" spans="1:8">
+      <c r="A298" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B298">
@@ -9430,8 +9453,8 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A299" t="s">
+    <row r="299" spans="1:8">
+      <c r="A299" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B299">
@@ -9458,8 +9481,8 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A300" t="s">
+    <row r="300" spans="1:8">
+      <c r="A300" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B300">
@@ -9486,8 +9509,8 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A301" t="s">
+    <row r="301" spans="1:8">
+      <c r="A301" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B301">
@@ -9514,8 +9537,8 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A302" t="s">
+    <row r="302" spans="1:8">
+      <c r="A302" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B302">
@@ -9542,8 +9565,8 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A303" t="s">
+    <row r="303" spans="1:8">
+      <c r="A303" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B303">
@@ -9570,8 +9593,8 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A304" t="s">
+    <row r="304" spans="1:8">
+      <c r="A304" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B304">
@@ -9598,8 +9621,8 @@
         <v>0.16838</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A305" t="s">
+    <row r="305" spans="1:8">
+      <c r="A305" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B305">
@@ -9626,8 +9649,8 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A306" t="s">
+    <row r="306" spans="1:8">
+      <c r="A306" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B306">
@@ -9654,8 +9677,8 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A307" t="s">
+    <row r="307" spans="1:8">
+      <c r="A307" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B307">
@@ -9682,8 +9705,8 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A308" t="s">
+    <row r="308" spans="1:8">
+      <c r="A308" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B308">
@@ -9710,8 +9733,8 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A309" t="s">
+    <row r="309" spans="1:8">
+      <c r="A309" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B309">
@@ -9738,8 +9761,8 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A310" t="s">
+    <row r="310" spans="1:8">
+      <c r="A310" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B310">
@@ -9766,8 +9789,8 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A311" t="s">
+    <row r="311" spans="1:8">
+      <c r="A311" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B311">
@@ -9794,8 +9817,8 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A312" t="s">
+    <row r="312" spans="1:8">
+      <c r="A312" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B312">
@@ -9822,8 +9845,8 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A313" t="s">
+    <row r="313" spans="1:8">
+      <c r="A313" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B313">
@@ -9850,8 +9873,8 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A314" t="s">
+    <row r="314" spans="1:8">
+      <c r="A314" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B314">
@@ -9878,8 +9901,8 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A315" t="s">
+    <row r="315" spans="1:8">
+      <c r="A315" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B315">
@@ -9906,8 +9929,8 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A316" t="s">
+    <row r="316" spans="1:8">
+      <c r="A316" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B316">
@@ -9934,8 +9957,8 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A317" t="s">
+    <row r="317" spans="1:8">
+      <c r="A317" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B317">
@@ -9962,8 +9985,8 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A318" t="s">
+    <row r="318" spans="1:8">
+      <c r="A318" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B318">
@@ -9990,8 +10013,8 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A319" t="s">
+    <row r="319" spans="1:8">
+      <c r="A319" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B319">
@@ -10018,8 +10041,8 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A320" t="s">
+    <row r="320" spans="1:8">
+      <c r="A320" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B320">
@@ -10046,8 +10069,8 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A321" t="s">
+    <row r="321" spans="1:8">
+      <c r="A321" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B321">
@@ -10074,8 +10097,8 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A322" t="s">
+    <row r="322" spans="1:8">
+      <c r="A322" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B322">
@@ -10102,8 +10125,8 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A323" t="s">
+    <row r="323" spans="1:8">
+      <c r="A323" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B323">
@@ -10130,8 +10153,8 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A324" t="s">
+    <row r="324" spans="1:8">
+      <c r="A324" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B324">
@@ -10158,8 +10181,8 @@
         <v>0.32969999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A325" t="s">
+    <row r="325" spans="1:8">
+      <c r="A325" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B325">
@@ -10186,8 +10209,8 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A326" t="s">
+    <row r="326" spans="1:8">
+      <c r="A326" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B326">
@@ -10214,8 +10237,8 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A327" t="s">
+    <row r="327" spans="1:8">
+      <c r="A327" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B327">
@@ -10242,8 +10265,8 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A328" t="s">
+    <row r="328" spans="1:8">
+      <c r="A328" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B328">
@@ -10270,8 +10293,8 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A329" t="s">
+    <row r="329" spans="1:8">
+      <c r="A329" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B329">
@@ -10298,8 +10321,8 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A330" t="s">
+    <row r="330" spans="1:8">
+      <c r="A330" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B330">
@@ -10326,8 +10349,8 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A331" t="s">
+    <row r="331" spans="1:8">
+      <c r="A331" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B331">
@@ -10354,8 +10377,8 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A332" t="s">
+    <row r="332" spans="1:8">
+      <c r="A332" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B332">
@@ -10382,8 +10405,8 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A333" t="s">
+    <row r="333" spans="1:8">
+      <c r="A333" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B333">
@@ -10410,8 +10433,8 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A334" t="s">
+    <row r="334" spans="1:8">
+      <c r="A334" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B334">
@@ -10438,8 +10461,8 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A335" t="s">
+    <row r="335" spans="1:8">
+      <c r="A335" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B335">
@@ -10466,8 +10489,8 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A336" t="s">
+    <row r="336" spans="1:8">
+      <c r="A336" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B336">
@@ -10494,8 +10517,8 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A337" t="s">
+    <row r="337" spans="1:8">
+      <c r="A337" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B337">
@@ -10522,8 +10545,8 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A338" t="s">
+    <row r="338" spans="1:8">
+      <c r="A338" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B338">
@@ -10550,8 +10573,8 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A339" t="s">
+    <row r="339" spans="1:8">
+      <c r="A339" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B339">
@@ -10578,8 +10601,8 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A340" t="s">
+    <row r="340" spans="1:8">
+      <c r="A340" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B340">
@@ -10598,16 +10621,16 @@
         <v>8.5301999999999999E-3</v>
       </c>
       <c r="G340" s="1" t="str">
-        <f t="shared" ref="G340:G403" si="16">IF($A340=$A339,"",MIN(C340:C359))</f>
+        <f t="shared" ref="G340:G401" si="16">IF($A340=$A339,"",MIN(C340:C359))</f>
         <v/>
       </c>
       <c r="H340" s="1" t="str">
-        <f t="shared" ref="H340:H403" si="17">IF($A340=$A339,"",MIN(D340:D359))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A341" t="s">
+        <f t="shared" ref="H340:H401" si="17">IF($A340=$A339,"",MIN(D340:D359))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B341">
@@ -10634,8 +10657,8 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A342" t="s">
+    <row r="342" spans="1:8">
+      <c r="A342" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B342">
@@ -10662,8 +10685,8 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A343" t="s">
+    <row r="343" spans="1:8">
+      <c r="A343" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B343">
@@ -10690,8 +10713,8 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A344" t="s">
+    <row r="344" spans="1:8">
+      <c r="A344" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B344">
@@ -10718,8 +10741,8 @@
         <v>0.32950000000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A345" t="s">
+    <row r="345" spans="1:8">
+      <c r="A345" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B345">
@@ -10746,8 +10769,8 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A346" t="s">
+    <row r="346" spans="1:8">
+      <c r="A346" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B346">
@@ -10774,8 +10797,8 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A347" t="s">
+    <row r="347" spans="1:8">
+      <c r="A347" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B347">
@@ -10802,8 +10825,8 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A348" t="s">
+    <row r="348" spans="1:8">
+      <c r="A348" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B348">
@@ -10830,8 +10853,8 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A349" t="s">
+    <row r="349" spans="1:8">
+      <c r="A349" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B349">
@@ -10858,8 +10881,8 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A350" t="s">
+    <row r="350" spans="1:8">
+      <c r="A350" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B350">
@@ -10886,8 +10909,8 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A351" t="s">
+    <row r="351" spans="1:8">
+      <c r="A351" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B351">
@@ -10914,8 +10937,8 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A352" t="s">
+    <row r="352" spans="1:8">
+      <c r="A352" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B352">
@@ -10942,8 +10965,8 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A353" t="s">
+    <row r="353" spans="1:8">
+      <c r="A353" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B353">
@@ -10970,8 +10993,8 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A354" t="s">
+    <row r="354" spans="1:8">
+      <c r="A354" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B354">
@@ -10998,8 +11021,8 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A355" t="s">
+    <row r="355" spans="1:8">
+      <c r="A355" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B355">
@@ -11026,8 +11049,8 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A356" t="s">
+    <row r="356" spans="1:8">
+      <c r="A356" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B356">
@@ -11054,8 +11077,8 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A357" t="s">
+    <row r="357" spans="1:8">
+      <c r="A357" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B357">
@@ -11082,8 +11105,8 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A358" t="s">
+    <row r="358" spans="1:8">
+      <c r="A358" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B358">
@@ -11110,8 +11133,8 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A359" t="s">
+    <row r="359" spans="1:8">
+      <c r="A359" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B359">
@@ -11138,8 +11161,8 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A360" t="s">
+    <row r="360" spans="1:8">
+      <c r="A360" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B360">
@@ -11166,8 +11189,8 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A361" t="s">
+    <row r="361" spans="1:8">
+      <c r="A361" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B361">
@@ -11194,8 +11217,8 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A362" t="s">
+    <row r="362" spans="1:8">
+      <c r="A362" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B362">
@@ -11222,8 +11245,8 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A363" t="s">
+    <row r="363" spans="1:8">
+      <c r="A363" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B363">
@@ -11250,8 +11273,8 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A364" t="s">
+    <row r="364" spans="1:8">
+      <c r="A364" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B364">
@@ -11278,8 +11301,8 @@
         <v>0.34066000000000002</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A365" t="s">
+    <row r="365" spans="1:8">
+      <c r="A365" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B365">
@@ -11306,8 +11329,8 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A366" t="s">
+    <row r="366" spans="1:8">
+      <c r="A366" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B366">
@@ -11334,8 +11357,8 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A367" t="s">
+    <row r="367" spans="1:8">
+      <c r="A367" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B367">
@@ -11362,8 +11385,8 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A368" t="s">
+    <row r="368" spans="1:8">
+      <c r="A368" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B368">
@@ -11390,8 +11413,8 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A369" t="s">
+    <row r="369" spans="1:8">
+      <c r="A369" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B369">
@@ -11418,8 +11441,8 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A370" t="s">
+    <row r="370" spans="1:8">
+      <c r="A370" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B370">
@@ -11446,8 +11469,8 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A371" t="s">
+    <row r="371" spans="1:8">
+      <c r="A371" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B371">
@@ -11474,8 +11497,8 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A372" t="s">
+    <row r="372" spans="1:8">
+      <c r="A372" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B372">
@@ -11502,8 +11525,8 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A373" t="s">
+    <row r="373" spans="1:8">
+      <c r="A373" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B373">
@@ -11530,8 +11553,8 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A374" t="s">
+    <row r="374" spans="1:8">
+      <c r="A374" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B374">
@@ -11558,8 +11581,8 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A375" t="s">
+    <row r="375" spans="1:8">
+      <c r="A375" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B375">
@@ -11586,8 +11609,8 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A376" t="s">
+    <row r="376" spans="1:8">
+      <c r="A376" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B376">
@@ -11614,8 +11637,8 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A377" t="s">
+    <row r="377" spans="1:8">
+      <c r="A377" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B377">
@@ -11642,8 +11665,8 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A378" t="s">
+    <row r="378" spans="1:8">
+      <c r="A378" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B378">
@@ -11670,8 +11693,8 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A379" t="s">
+    <row r="379" spans="1:8">
+      <c r="A379" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B379">
@@ -11698,8 +11721,8 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A380" t="s">
+    <row r="380" spans="1:8">
+      <c r="A380" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B380">
@@ -11726,8 +11749,8 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A381" t="s">
+    <row r="381" spans="1:8">
+      <c r="A381" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B381">
@@ -11754,8 +11777,8 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A382" t="s">
+    <row r="382" spans="1:8">
+      <c r="A382" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B382">
@@ -11782,8 +11805,8 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A383" t="s">
+    <row r="383" spans="1:8">
+      <c r="A383" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B383">
@@ -11810,8 +11833,8 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A384" t="s">
+    <row r="384" spans="1:8">
+      <c r="A384" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B384">
@@ -11838,8 +11861,8 @@
         <v>0.34377999999999997</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A385" t="s">
+    <row r="385" spans="1:8">
+      <c r="A385" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B385">
@@ -11866,8 +11889,8 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A386" t="s">
+    <row r="386" spans="1:8">
+      <c r="A386" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B386">
@@ -11894,8 +11917,8 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A387" t="s">
+    <row r="387" spans="1:8">
+      <c r="A387" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B387">
@@ -11922,8 +11945,8 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A388" t="s">
+    <row r="388" spans="1:8">
+      <c r="A388" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B388">
@@ -11950,8 +11973,8 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A389" t="s">
+    <row r="389" spans="1:8">
+      <c r="A389" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B389">
@@ -11978,8 +12001,8 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A390" t="s">
+    <row r="390" spans="1:8">
+      <c r="A390" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B390">
@@ -12006,8 +12029,8 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A391" t="s">
+    <row r="391" spans="1:8">
+      <c r="A391" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B391">
@@ -12034,8 +12057,8 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A392" t="s">
+    <row r="392" spans="1:8">
+      <c r="A392" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B392">
@@ -12062,8 +12085,8 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A393" t="s">
+    <row r="393" spans="1:8">
+      <c r="A393" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B393">
@@ -12090,8 +12113,8 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A394" t="s">
+    <row r="394" spans="1:8">
+      <c r="A394" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B394">
@@ -12118,8 +12141,8 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A395" t="s">
+    <row r="395" spans="1:8">
+      <c r="A395" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B395">
@@ -12146,8 +12169,8 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A396" t="s">
+    <row r="396" spans="1:8">
+      <c r="A396" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B396">
@@ -12174,8 +12197,8 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A397" t="s">
+    <row r="397" spans="1:8">
+      <c r="A397" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B397">
@@ -12202,8 +12225,8 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A398" t="s">
+    <row r="398" spans="1:8">
+      <c r="A398" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B398">
@@ -12230,8 +12253,8 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A399" t="s">
+    <row r="399" spans="1:8">
+      <c r="A399" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B399">
@@ -12258,8 +12281,8 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A400" t="s">
+    <row r="400" spans="1:8">
+      <c r="A400" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B400">
@@ -12286,8 +12309,8 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A401" t="s">
+    <row r="401" spans="1:8">
+      <c r="A401" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B401">
@@ -12314,8 +12337,8 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A402" t="s">
+    <row r="402" spans="1:8">
+      <c r="A402" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B402">
@@ -12342,8 +12365,8 @@
         <v>0.37895000000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A403" t="s">
+    <row r="403" spans="1:8">
+      <c r="A403" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B403">
@@ -12362,16 +12385,16 @@
         <v>19.132000000000001</v>
       </c>
       <c r="G403" s="1" t="str">
-        <f t="shared" ref="G403:G419" si="18">IF($A403=$A402,"",MIN(C403:C422))</f>
+        <f t="shared" ref="G403:G439" si="18">IF($A403=$A402,"",MIN(C403:C422))</f>
         <v/>
       </c>
       <c r="H403" s="1" t="str">
-        <f t="shared" ref="H403:H419" si="19">IF($A403=$A402,"",MIN(D403:D422))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A404" t="s">
+        <f t="shared" ref="H403:H439" si="19">IF($A403=$A402,"",MIN(D403:D422))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B404">
@@ -12398,8 +12421,8 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A405" t="s">
+    <row r="405" spans="1:8">
+      <c r="A405" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B405">
@@ -12426,8 +12449,8 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A406" t="s">
+    <row r="406" spans="1:8">
+      <c r="A406" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B406">
@@ -12454,8 +12477,8 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A407" t="s">
+    <row r="407" spans="1:8">
+      <c r="A407" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B407">
@@ -12482,8 +12505,8 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A408" t="s">
+    <row r="408" spans="1:8">
+      <c r="A408" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B408">
@@ -12510,8 +12533,8 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A409" t="s">
+    <row r="409" spans="1:8">
+      <c r="A409" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B409">
@@ -12538,8 +12561,8 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A410" t="s">
+    <row r="410" spans="1:8">
+      <c r="A410" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B410">
@@ -12566,8 +12589,8 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A411" t="s">
+    <row r="411" spans="1:8">
+      <c r="A411" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B411">
@@ -12594,8 +12617,8 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A412" t="s">
+    <row r="412" spans="1:8">
+      <c r="A412" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B412">
@@ -12622,8 +12645,8 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A413" t="s">
+    <row r="413" spans="1:8">
+      <c r="A413" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B413">
@@ -12650,8 +12673,8 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A414" t="s">
+    <row r="414" spans="1:8">
+      <c r="A414" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B414">
@@ -12678,8 +12701,8 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A415" t="s">
+    <row r="415" spans="1:8">
+      <c r="A415" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B415">
@@ -12706,8 +12729,8 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A416" t="s">
+    <row r="416" spans="1:8">
+      <c r="A416" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B416">
@@ -12734,8 +12757,8 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A417" t="s">
+    <row r="417" spans="1:8">
+      <c r="A417" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B417">
@@ -12762,8 +12785,8 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A418" t="s">
+    <row r="418" spans="1:8">
+      <c r="A418" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B418">
@@ -12790,8 +12813,8 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A419" t="s">
+    <row r="419" spans="1:8">
+      <c r="A419" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B419">
@@ -12818,59 +12841,619 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A420" t="s">
+    <row r="420" spans="1:8">
+      <c r="A420" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+      <c r="C420" s="1">
+        <v>1.5012000000000001</v>
+      </c>
+      <c r="D420" s="2">
+        <v>0.58360999999999996</v>
+      </c>
+      <c r="E420" s="1">
+        <v>5.6397999999999997E-2</v>
+      </c>
+      <c r="F420" s="1">
+        <v>0.1363</v>
+      </c>
+      <c r="G420" s="1">
+        <f t="shared" si="18"/>
+        <v>1.1796</v>
+      </c>
+      <c r="H420" s="1">
+        <f t="shared" si="19"/>
+        <v>0.36934</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
+      <c r="A421" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B421">
+        <v>0.05</v>
+      </c>
+      <c r="C421" s="1">
+        <v>1.4787999999999999</v>
+      </c>
+      <c r="D421" s="2">
+        <v>0.51685999999999999</v>
+      </c>
+      <c r="E421" s="1">
+        <v>1.5596E-2</v>
+      </c>
+      <c r="F421" s="1">
+        <v>6.2909000000000003E-3</v>
+      </c>
+      <c r="G421" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H421" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
+      <c r="A422" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B422">
+        <v>0.1</v>
+      </c>
+      <c r="C422" s="1">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="D422" s="2">
+        <v>0.51195000000000002</v>
+      </c>
+      <c r="E422" s="1">
+        <v>1.7291000000000001E-2</v>
+      </c>
+      <c r="F422" s="1">
+        <v>6.3112000000000003E-3</v>
+      </c>
+      <c r="G422" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H422" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B423">
+        <v>0.15</v>
+      </c>
+      <c r="C423" s="1">
+        <v>1.4693000000000001</v>
+      </c>
+      <c r="D423" s="2">
+        <v>0.50641000000000003</v>
+      </c>
+      <c r="E423" s="1">
+        <v>1.6412E-2</v>
+      </c>
+      <c r="F423" s="1">
+        <v>6.2776000000000004E-3</v>
+      </c>
+      <c r="G423" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H423" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="A424" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B424">
+        <v>0.2</v>
+      </c>
+      <c r="C424" s="1">
+        <v>1.4624999999999999</v>
+      </c>
+      <c r="D424" s="2">
+        <v>0.49997000000000003</v>
+      </c>
+      <c r="E424" s="1">
+        <v>1.5509999999999999E-2</v>
+      </c>
+      <c r="F424" s="1">
+        <v>5.9112000000000001E-3</v>
+      </c>
+      <c r="G424" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H424" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="A425" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B425">
+        <v>0.25</v>
+      </c>
+      <c r="C425" s="1">
+        <v>1.4541999999999999</v>
+      </c>
+      <c r="D425" s="2">
+        <v>0.49238999999999999</v>
+      </c>
+      <c r="E425" s="1">
+        <v>1.6011999999999998E-2</v>
+      </c>
+      <c r="F425" s="1">
+        <v>5.7939999999999997E-3</v>
+      </c>
+      <c r="G425" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H425" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="A426" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B426">
+        <v>0.3</v>
+      </c>
+      <c r="C426" s="1">
+        <v>1.4449000000000001</v>
+      </c>
+      <c r="D426" s="2">
+        <v>0.48433999999999999</v>
+      </c>
+      <c r="E426" s="1">
+        <v>1.6056000000000001E-2</v>
+      </c>
+      <c r="F426" s="1">
+        <v>6.0073000000000001E-3</v>
+      </c>
+      <c r="G426" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H426" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B427">
+        <v>0.35</v>
+      </c>
+      <c r="C427" s="1">
+        <v>1.4352</v>
+      </c>
+      <c r="D427" s="2">
+        <v>0.47567999999999999</v>
+      </c>
+      <c r="E427" s="1">
+        <v>1.6819000000000001E-2</v>
+      </c>
+      <c r="F427" s="1">
+        <v>6.2557999999999997E-3</v>
+      </c>
+      <c r="G427" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H427" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B428">
+        <v>0.4</v>
+      </c>
+      <c r="C428" s="1">
+        <v>1.4655</v>
+      </c>
+      <c r="D428" s="2">
+        <v>0.46844999999999998</v>
+      </c>
+      <c r="E428" s="1">
+        <v>0.11876</v>
+      </c>
+      <c r="F428" s="1">
+        <v>9.1523999999999998E-3</v>
+      </c>
+      <c r="G428" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H428" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B429">
+        <v>0.45</v>
+      </c>
+      <c r="C429" s="1">
+        <v>1.4111</v>
+      </c>
+      <c r="D429" s="2">
+        <v>0.45635999999999999</v>
+      </c>
+      <c r="E429" s="1">
+        <v>1.6212000000000001E-2</v>
+      </c>
+      <c r="F429" s="1">
+        <v>6.0514999999999996E-3</v>
+      </c>
+      <c r="G429" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H429" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="A430" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B430">
+        <v>0.5</v>
+      </c>
+      <c r="C430" s="1">
+        <v>1.3953</v>
+      </c>
+      <c r="D430" s="2">
+        <v>0.44540999999999997</v>
+      </c>
+      <c r="E430" s="1">
+        <v>1.6043999999999999E-2</v>
+      </c>
+      <c r="F430" s="1">
+        <v>6.0657999999999997E-3</v>
+      </c>
+      <c r="G430" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H430" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B431">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C431" s="1">
+        <v>1.3913</v>
+      </c>
+      <c r="D431" s="2">
+        <v>0.43414999999999998</v>
+      </c>
+      <c r="E431" s="1">
+        <v>5.2259E-2</v>
+      </c>
+      <c r="F431" s="1">
+        <v>6.2281000000000003E-3</v>
+      </c>
+      <c r="G431" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H431" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B432">
+        <v>0.6</v>
+      </c>
+      <c r="C432" s="1">
+        <v>1.357</v>
+      </c>
+      <c r="D432" s="2">
+        <v>0.42204999999999998</v>
+      </c>
+      <c r="E432" s="1">
+        <v>1.6209000000000001E-2</v>
+      </c>
+      <c r="F432" s="1">
+        <v>5.4609999999999997E-3</v>
+      </c>
+      <c r="G432" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H432" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B433">
+        <v>0.65</v>
+      </c>
+      <c r="C433" s="1">
+        <v>1.3331999999999999</v>
+      </c>
+      <c r="D433" s="2">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="E433" s="1">
+        <v>1.6008000000000001E-2</v>
+      </c>
+      <c r="F433" s="1">
+        <v>5.4583000000000001E-3</v>
+      </c>
+      <c r="G433" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H433" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B434">
+        <v>0.7</v>
+      </c>
+      <c r="C434" s="1">
+        <v>1.3097000000000001</v>
+      </c>
+      <c r="D434" s="2">
+        <v>0.39734000000000003</v>
+      </c>
+      <c r="E434" s="1">
+        <v>1.8813E-2</v>
+      </c>
+      <c r="F434" s="1">
+        <v>5.3109999999999997E-3</v>
+      </c>
+      <c r="G434" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H434" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B435">
+        <v>0.75</v>
+      </c>
+      <c r="C435" s="1">
+        <v>1.2819</v>
+      </c>
+      <c r="D435" s="2">
+        <v>0.38532</v>
+      </c>
+      <c r="E435" s="1">
+        <v>2.6169000000000001E-2</v>
+      </c>
+      <c r="F435" s="1">
+        <v>5.4159999999999998E-3</v>
+      </c>
+      <c r="G435" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H435" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B436">
+        <v>0.8</v>
+      </c>
+      <c r="C436" s="1">
+        <v>1.2423999999999999</v>
+      </c>
+      <c r="D436" s="2">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="E436" s="1">
+        <v>1.4697E-2</v>
+      </c>
+      <c r="F436" s="1">
+        <v>5.2705E-3</v>
+      </c>
+      <c r="G436" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H436" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B437">
+        <v>0.85</v>
+      </c>
+      <c r="C437" s="1">
+        <v>1.2078</v>
+      </c>
+      <c r="D437" s="2">
+        <v>0.36934</v>
+      </c>
+      <c r="E437" s="1">
+        <v>1.4427000000000001E-2</v>
+      </c>
+      <c r="F437" s="1">
+        <v>4.8224000000000001E-3</v>
+      </c>
+      <c r="G437" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H437" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B438">
+        <v>0.9</v>
+      </c>
+      <c r="C438" s="1">
+        <v>1.1796</v>
+      </c>
+      <c r="D438" s="2">
+        <v>0.37330999999999998</v>
+      </c>
+      <c r="E438" s="1">
+        <v>1.2997999999999999E-2</v>
+      </c>
+      <c r="F438" s="1">
+        <v>4.9559000000000001E-3</v>
+      </c>
+      <c r="G438" s="1" t="str">
+        <f>IF($A438=$A437,"",MIN(C438:C457))</f>
+        <v/>
+      </c>
+      <c r="H438" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B439">
+        <v>0.95</v>
+      </c>
+      <c r="C439" s="1">
+        <v>1.1835</v>
+      </c>
+      <c r="D439" s="2">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="E439" s="1">
+        <v>1.3762E-2</v>
+      </c>
+      <c r="F439" s="1">
+        <v>3.2331999999999999E-3</v>
+      </c>
+      <c r="G439" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H439" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="A440" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B420">
-        <v>0</v>
-      </c>
-      <c r="C420" s="1">
+      <c r="B440">
+        <v>0</v>
+      </c>
+      <c r="C440" s="1">
         <v>1.901</v>
       </c>
-      <c r="D420" s="2">
+      <c r="D440" s="2">
         <v>1.2042999999999999</v>
       </c>
-      <c r="E420" s="1">
+      <c r="E440" s="1">
         <v>2.1284000000000001E-2</v>
       </c>
-      <c r="F420" s="1">
+      <c r="F440" s="1">
         <v>2.1731E-2</v>
       </c>
-      <c r="G420" s="1">
-        <f>C420</f>
+      <c r="G440" s="1">
+        <f>C440</f>
         <v>1.901</v>
       </c>
-      <c r="H420" s="1">
-        <f t="shared" ref="H420:H421" si="20">D420</f>
+      <c r="H440" s="1">
+        <f>D440</f>
         <v>1.2042999999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A421" t="s">
+    <row r="441" spans="1:8">
+      <c r="A441" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B421">
-        <v>0</v>
-      </c>
-      <c r="C421" s="1">
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441" s="1">
         <v>0.39624999999999999</v>
       </c>
-      <c r="D421" s="2">
+      <c r="D441" s="2">
         <v>0.17660000000000001</v>
       </c>
-      <c r="E421" s="1">
+      <c r="E441" s="1">
         <v>3.7001999999999998E-3</v>
       </c>
-      <c r="F421" s="1">
+      <c r="F441" s="1">
         <v>1.2551999999999999E-3</v>
       </c>
-      <c r="G421" s="1">
-        <f t="shared" ref="G421" si="21">C421</f>
+      <c r="G441" s="1">
+        <f>C441</f>
         <v>0.39624999999999999</v>
       </c>
-      <c r="H421" s="1">
-        <f t="shared" si="20"/>
+      <c r="H441" s="1">
+        <f>D441</f>
         <v>0.17660000000000001</v>
       </c>
     </row>
@@ -12880,86 +13463,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496D1A1F-012A-4917-AFE9-7B3AC93860EF}">
-  <dimension ref="A1:W221"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E345A74F-CC6F-4DD6-B0B3-DDEB23E95545}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.33178999999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.15737000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0.33167999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.15740000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0.33804000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.16777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0.33833000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.16789000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.33867000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.16825000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0.33823999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.16838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.37225999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.16891999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.37026999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.16971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>0.39624999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.17660000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.37680000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.18168000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0.37631999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.18178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0.37587999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.18179000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.3765</v>
+      </c>
+      <c r="C14">
+        <v>0.18210999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.37712000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.18223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.37623000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.18240999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>0.41850999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.27548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>0.41843000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.27565000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.60902999999999996</v>
+      </c>
+      <c r="C19">
+        <v>0.31664999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0.60902999999999996</v>
+      </c>
+      <c r="C20">
+        <v>0.31667000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.58757000000000004</v>
+      </c>
+      <c r="C21">
+        <v>0.32950000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0.59062000000000003</v>
+      </c>
+      <c r="C22">
+        <v>0.32969999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>1.2083999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.34066000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>1.2197</v>
+      </c>
+      <c r="C24">
+        <v>0.34377999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <v>1.1796</v>
+      </c>
+      <c r="C25">
+        <v>0.36934</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>1.1883999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.37895000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>1.901</v>
+      </c>
+      <c r="C27">
+        <v>1.2042999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
+    <sortCondition ref="C2:C27"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496D1A1F-012A-4917-AFE9-7B3AC93860EF}">
+  <dimension ref="A1:W223"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomRight" activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="11.46484375" style="3" customWidth="1"/>
     <col min="3" max="16" width="11.46484375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="57" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" ht="57">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
@@ -13023,15 +13924,15 @@
       </c>
       <c r="V2">
         <f>SUM(Q:Q)/COUNT(Q:Q)</f>
-        <v>0.55454545454545456</v>
+        <v>0.59909909909909909</v>
       </c>
       <c r="W2">
         <f>SUM(R:R)/COUNT(R:R)</f>
-        <v>0.47272727272727272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+        <v>0.53153153153153154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
@@ -13094,8 +13995,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:23">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
@@ -13158,8 +14059,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:23">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
@@ -13222,8 +14123,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:23">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
@@ -13286,8 +14187,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:23">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -13350,8 +14251,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:23">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
@@ -13414,8 +14315,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="1:23">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3">
@@ -13478,8 +14379,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:23">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3">
@@ -13542,8 +14443,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:23">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="3">
@@ -13606,8 +14507,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12" spans="1:23">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3">
@@ -13670,8 +14571,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13" spans="1:23">
+      <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="3">
@@ -13734,8 +14635,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14" spans="1:23">
+      <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="3">
@@ -13798,8 +14699,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15" spans="1:23">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="3">
@@ -13862,8 +14763,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16" spans="1:23">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="3">
@@ -13926,8 +14827,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" spans="1:18">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="3">
@@ -13990,8 +14891,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18" spans="1:18">
+      <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="3">
@@ -14054,8 +14955,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3">
@@ -14118,8 +15019,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3">
@@ -14182,8 +15083,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3">
@@ -14246,8 +15147,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3">
@@ -14310,8 +15211,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23" spans="1:18">
+      <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="3">
@@ -14374,8 +15275,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="3">
@@ -14438,8 +15339,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25" spans="1:18">
+      <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="3">
@@ -14502,8 +15403,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26" spans="1:18">
+      <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="3">
@@ -14566,8 +15467,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="3">
@@ -14630,8 +15531,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28" spans="1:18">
+      <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="3">
@@ -14694,8 +15595,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29" spans="1:18">
+      <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="3">
@@ -14758,8 +15659,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="3">
@@ -14822,8 +15723,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="3">
@@ -14886,8 +15787,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32" spans="1:18">
+      <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="3">
@@ -14950,8 +15851,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33" spans="1:18">
+      <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="3">
@@ -15014,8 +15915,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="3">
@@ -15078,8 +15979,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="3">
@@ -15142,8 +16043,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="36" spans="1:18">
+      <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="3">
@@ -15206,8 +16107,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="37" spans="1:18">
+      <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="3">
@@ -15270,8 +16171,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="38" spans="1:18">
+      <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="3">
@@ -15334,8 +16235,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="39" spans="1:18">
+      <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="3">
@@ -15398,8 +16299,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="40" spans="1:18">
+      <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="3">
@@ -15462,8 +16363,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="41" spans="1:18">
+      <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="3">
@@ -15526,8 +16427,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="42" spans="1:18">
+      <c r="A42" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="3">
@@ -15590,8 +16491,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="43" spans="1:18">
+      <c r="A43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="3">
@@ -15654,8 +16555,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="44" spans="1:18">
+      <c r="A44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="3">
@@ -15718,8 +16619,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+    <row r="45" spans="1:18">
+      <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="3">
@@ -15782,8 +16683,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+    <row r="46" spans="1:18">
+      <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="3">
@@ -15846,8 +16747,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="47" spans="1:18">
+      <c r="A47" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="3">
@@ -15910,8 +16811,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="48" spans="1:18">
+      <c r="A48" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="3">
@@ -15974,8 +16875,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+    <row r="49" spans="1:18">
+      <c r="A49" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="3">
@@ -16038,8 +16939,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="50" spans="1:18">
+      <c r="A50" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="3">
@@ -16102,8 +17003,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    <row r="51" spans="1:18">
+      <c r="A51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="3">
@@ -16166,8 +17067,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="52" spans="1:18">
+      <c r="A52" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="3">
@@ -16230,8 +17131,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    <row r="53" spans="1:18">
+      <c r="A53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="3">
@@ -16294,8 +17195,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="54" spans="1:18">
+      <c r="A54" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="3">
@@ -16358,8 +17259,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    <row r="55" spans="1:18">
+      <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="3">
@@ -16422,8 +17323,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="56" spans="1:18">
+      <c r="A56" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="3">
@@ -16486,8 +17387,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+    <row r="57" spans="1:18">
+      <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="3">
@@ -16550,8 +17451,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    <row r="58" spans="1:18">
+      <c r="A58" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="3">
@@ -16614,8 +17515,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    <row r="59" spans="1:18">
+      <c r="A59" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="3">
@@ -16678,8 +17579,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+    <row r="60" spans="1:18">
+      <c r="A60" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="3">
@@ -16742,8 +17643,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+    <row r="61" spans="1:18">
+      <c r="A61" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="3">
@@ -16806,8 +17707,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    <row r="62" spans="1:18">
+      <c r="A62" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3">
@@ -16870,8 +17771,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    <row r="63" spans="1:18">
+      <c r="A63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B63" s="3">
@@ -16934,8 +17835,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+    <row r="64" spans="1:18">
+      <c r="A64" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B64" s="3">
@@ -16998,8 +17899,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+    <row r="65" spans="1:18">
+      <c r="A65" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="3">
@@ -17062,8 +17963,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+    <row r="66" spans="1:18">
+      <c r="A66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B66" s="3">
@@ -17126,8 +18027,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+    <row r="67" spans="1:18">
+      <c r="A67" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="3">
@@ -17190,8 +18091,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+    <row r="68" spans="1:18">
+      <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="3">
@@ -17254,8 +18155,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+    <row r="69" spans="1:18">
+      <c r="A69" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="3">
@@ -17318,8 +18219,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+    <row r="70" spans="1:18">
+      <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B70" s="3">
@@ -17382,8 +18283,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+    <row r="71" spans="1:18">
+      <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="3">
@@ -17446,8 +18347,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+    <row r="72" spans="1:18">
+      <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="3">
@@ -17510,8 +18411,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+    <row r="73" spans="1:18">
+      <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="3">
@@ -17574,8 +18475,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+    <row r="74" spans="1:18">
+      <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="3">
@@ -17638,8 +18539,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+    <row r="75" spans="1:18">
+      <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="3">
@@ -17702,8 +18603,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+    <row r="76" spans="1:18">
+      <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="3">
@@ -17766,8 +18667,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+    <row r="77" spans="1:18">
+      <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="3">
@@ -17830,8 +18731,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+    <row r="78" spans="1:18">
+      <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="3">
@@ -17894,8 +18795,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+    <row r="79" spans="1:18">
+      <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B79" s="3">
@@ -17958,8 +18859,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+    <row r="80" spans="1:18">
+      <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="3">
@@ -18022,8 +18923,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+    <row r="81" spans="1:18">
+      <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="3">
@@ -18086,8 +18987,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+    <row r="82" spans="1:18">
+      <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="3">
@@ -18150,8 +19051,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+    <row r="83" spans="1:18">
+      <c r="A83" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B83" s="3">
@@ -18214,8 +19115,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+    <row r="84" spans="1:18">
+      <c r="A84" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B84" s="3">
@@ -18278,8 +19179,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+    <row r="85" spans="1:18">
+      <c r="A85" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B85" s="3">
@@ -18342,8 +19243,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+    <row r="86" spans="1:18">
+      <c r="A86" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B86" s="3">
@@ -18406,8 +19307,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+    <row r="87" spans="1:18">
+      <c r="A87" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B87" s="3">
@@ -18470,8 +19371,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+    <row r="88" spans="1:18">
+      <c r="A88" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="3">
@@ -18534,8 +19435,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+    <row r="89" spans="1:18">
+      <c r="A89" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B89" s="3">
@@ -18598,8 +19499,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+    <row r="90" spans="1:18">
+      <c r="A90" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B90" s="3">
@@ -18662,8 +19563,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+    <row r="91" spans="1:18">
+      <c r="A91" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B91" s="3">
@@ -18726,8 +19627,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+    <row r="92" spans="1:18">
+      <c r="A92" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B92" s="3">
@@ -18790,8 +19691,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+    <row r="93" spans="1:18">
+      <c r="A93" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B93" s="3">
@@ -18854,8 +19755,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
+    <row r="94" spans="1:18">
+      <c r="A94" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B94" s="3">
@@ -18918,8 +19819,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
+    <row r="95" spans="1:18">
+      <c r="A95" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B95" s="3">
@@ -18982,8 +19883,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+    <row r="96" spans="1:18">
+      <c r="A96" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B96" s="3">
@@ -19046,8 +19947,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+    <row r="97" spans="1:18">
+      <c r="A97" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B97" s="3">
@@ -19110,8 +20011,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+    <row r="98" spans="1:18">
+      <c r="A98" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="3">
@@ -19174,8 +20075,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
+    <row r="99" spans="1:18">
+      <c r="A99" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B99" s="3">
@@ -19238,8 +20139,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
+    <row r="100" spans="1:18">
+      <c r="A100" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B100" s="3">
@@ -19302,8 +20203,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
+    <row r="101" spans="1:18">
+      <c r="A101" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B101" s="3">
@@ -19366,8 +20267,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
+    <row r="102" spans="1:18">
+      <c r="A102" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B102" s="3">
@@ -19430,8 +20331,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+    <row r="103" spans="1:18">
+      <c r="A103" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B103" s="3">
@@ -19494,8 +20395,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+    <row r="104" spans="1:18">
+      <c r="A104" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B104" s="3">
@@ -19558,8 +20459,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+    <row r="105" spans="1:18">
+      <c r="A105" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="3">
@@ -19622,8 +20523,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
+    <row r="106" spans="1:18">
+      <c r="A106" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B106" s="3">
@@ -19686,8 +20587,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
+    <row r="107" spans="1:18">
+      <c r="A107" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B107" s="3">
@@ -19750,8 +20651,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+    <row r="108" spans="1:18">
+      <c r="A108" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B108" s="3">
@@ -19814,8 +20715,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+    <row r="109" spans="1:18">
+      <c r="A109" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B109" s="3">
@@ -19878,8 +20779,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
+    <row r="110" spans="1:18">
+      <c r="A110" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B110" s="3">
@@ -19942,8 +20843,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+    <row r="111" spans="1:18">
+      <c r="A111" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B111" s="3">
@@ -20006,8 +20907,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
+    <row r="112" spans="1:18">
+      <c r="A112" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B112" s="3">
@@ -20070,8 +20971,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
+    <row r="113" spans="1:18">
+      <c r="A113" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B113" s="3">
@@ -20134,8 +21035,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
+    <row r="114" spans="1:18">
+      <c r="A114" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B114" s="3">
@@ -20198,8 +21099,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+    <row r="115" spans="1:18">
+      <c r="A115" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B115" s="3">
@@ -20262,8 +21163,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
+    <row r="116" spans="1:18">
+      <c r="A116" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B116" s="3">
@@ -20326,8 +21227,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
+    <row r="117" spans="1:18">
+      <c r="A117" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="3">
@@ -20390,8 +21291,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
+    <row r="118" spans="1:18">
+      <c r="A118" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B118" s="3">
@@ -20454,8 +21355,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
+    <row r="119" spans="1:18">
+      <c r="A119" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B119" s="3">
@@ -20518,8 +21419,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
+    <row r="120" spans="1:18">
+      <c r="A120" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B120" s="3">
@@ -20582,8 +21483,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
+    <row r="121" spans="1:18">
+      <c r="A121" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B121" s="3">
@@ -20646,8 +21547,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
+    <row r="122" spans="1:18">
+      <c r="A122" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B122" s="3">
@@ -20710,8 +21611,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
+    <row r="123" spans="1:18">
+      <c r="A123" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B123" s="3">
@@ -20774,8 +21675,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+    <row r="124" spans="1:18">
+      <c r="A124" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B124" s="3">
@@ -20838,8 +21739,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
+    <row r="125" spans="1:18">
+      <c r="A125" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B125" s="3">
@@ -20902,8 +21803,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
+    <row r="126" spans="1:18">
+      <c r="A126" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B126" s="3">
@@ -20966,8 +21867,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
+    <row r="127" spans="1:18">
+      <c r="A127" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B127" s="3">
@@ -21030,8 +21931,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
+    <row r="128" spans="1:18">
+      <c r="A128" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B128" s="3">
@@ -21094,8 +21995,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
+    <row r="129" spans="1:18">
+      <c r="A129" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B129" s="3">
@@ -21158,8 +22059,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
+    <row r="130" spans="1:18">
+      <c r="A130" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B130" s="3">
@@ -21222,8 +22123,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
+    <row r="131" spans="1:18">
+      <c r="A131" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B131" s="3">
@@ -21286,8 +22187,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
+    <row r="132" spans="1:18">
+      <c r="A132" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B132" s="3">
@@ -21350,8 +22251,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
+    <row r="133" spans="1:18">
+      <c r="A133" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B133" s="3">
@@ -21414,8 +22315,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
+    <row r="134" spans="1:18">
+      <c r="A134" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B134" s="3">
@@ -21478,8 +22379,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
+    <row r="135" spans="1:18">
+      <c r="A135" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B135" s="3">
@@ -21542,8 +22443,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
+    <row r="136" spans="1:18">
+      <c r="A136" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B136" s="3">
@@ -21606,8 +22507,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
+    <row r="137" spans="1:18">
+      <c r="A137" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B137" s="3">
@@ -21670,8 +22571,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
+    <row r="138" spans="1:18">
+      <c r="A138" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B138" s="3">
@@ -21734,8 +22635,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A139" t="s">
+    <row r="139" spans="1:18">
+      <c r="A139" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B139" s="3">
@@ -21798,8 +22699,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
+    <row r="140" spans="1:18">
+      <c r="A140" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B140" s="3">
@@ -21862,8 +22763,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
+    <row r="141" spans="1:18">
+      <c r="A141" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B141" s="3">
@@ -21926,8 +22827,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
+    <row r="142" spans="1:18">
+      <c r="A142" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B142" s="3">
@@ -21990,8 +22891,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
+    <row r="143" spans="1:18">
+      <c r="A143" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B143" s="3">
@@ -22054,8 +22955,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
+    <row r="144" spans="1:18">
+      <c r="A144" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B144" s="3">
@@ -22118,8 +23019,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
+    <row r="145" spans="1:18">
+      <c r="A145" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B145" s="3">
@@ -22182,8 +23083,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
+    <row r="146" spans="1:18">
+      <c r="A146" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B146" s="3">
@@ -22246,8 +23147,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
+    <row r="147" spans="1:18">
+      <c r="A147" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B147" s="3">
@@ -22310,8 +23211,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
+    <row r="148" spans="1:18">
+      <c r="A148" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B148" s="3">
@@ -22374,8 +23275,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
+    <row r="149" spans="1:18">
+      <c r="A149" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B149" s="3">
@@ -22438,8 +23339,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
+    <row r="150" spans="1:18">
+      <c r="A150" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B150" s="3">
@@ -22502,8 +23403,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
+    <row r="151" spans="1:18">
+      <c r="A151" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B151" s="3">
@@ -22566,8 +23467,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
+    <row r="152" spans="1:18">
+      <c r="A152" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B152" s="3">
@@ -22630,8 +23531,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
+    <row r="153" spans="1:18">
+      <c r="A153" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B153" s="3">
@@ -22694,8 +23595,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
+    <row r="154" spans="1:18">
+      <c r="A154" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B154" s="3">
@@ -22758,8 +23659,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
+    <row r="155" spans="1:18">
+      <c r="A155" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B155" s="3">
@@ -22822,8 +23723,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
+    <row r="156" spans="1:18">
+      <c r="A156" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B156" s="3">
@@ -22886,8 +23787,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
+    <row r="157" spans="1:18">
+      <c r="A157" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B157" s="3">
@@ -22950,8 +23851,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
+    <row r="158" spans="1:18">
+      <c r="A158" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B158" s="3">
@@ -23014,8 +23915,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
+    <row r="159" spans="1:18">
+      <c r="A159" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B159" s="3">
@@ -23078,8 +23979,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
+    <row r="160" spans="1:18">
+      <c r="A160" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B160" s="3">
@@ -23142,8 +24043,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
+    <row r="161" spans="1:18">
+      <c r="A161" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B161" s="3">
@@ -23206,8 +24107,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
+    <row r="162" spans="1:18">
+      <c r="A162" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B162" s="3">
@@ -23270,8 +24171,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
+    <row r="163" spans="1:18">
+      <c r="A163" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B163" s="3">
@@ -23334,8 +24235,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
+    <row r="164" spans="1:18">
+      <c r="A164" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B164" s="3">
@@ -23398,8 +24299,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
+    <row r="165" spans="1:18">
+      <c r="A165" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B165" s="3">
@@ -23462,8 +24363,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
+    <row r="166" spans="1:18">
+      <c r="A166" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B166" s="3">
@@ -23526,8 +24427,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
+    <row r="167" spans="1:18">
+      <c r="A167" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B167" s="3">
@@ -23590,8 +24491,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
+    <row r="168" spans="1:18">
+      <c r="A168" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B168" s="3">
@@ -23654,8 +24555,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
+    <row r="169" spans="1:18">
+      <c r="A169" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B169" s="3">
@@ -23718,8 +24619,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
+    <row r="170" spans="1:18">
+      <c r="A170" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B170" s="3">
@@ -23782,8 +24683,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
+    <row r="171" spans="1:18">
+      <c r="A171" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B171" s="3">
@@ -23846,8 +24747,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
+    <row r="172" spans="1:18">
+      <c r="A172" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B172" s="3">
@@ -23910,8 +24811,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
+    <row r="173" spans="1:18">
+      <c r="A173" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B173" s="3">
@@ -23974,8 +24875,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
+    <row r="174" spans="1:18">
+      <c r="A174" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B174" s="3">
@@ -24038,8 +24939,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
+    <row r="175" spans="1:18">
+      <c r="A175" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B175" s="3">
@@ -24102,8 +25003,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
+    <row r="176" spans="1:18">
+      <c r="A176" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B176" s="3">
@@ -24166,8 +25067,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
+    <row r="177" spans="1:18">
+      <c r="A177" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B177" s="3">
@@ -24230,8 +25131,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
+    <row r="178" spans="1:18">
+      <c r="A178" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B178" s="3">
@@ -24294,8 +25195,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
+    <row r="179" spans="1:18">
+      <c r="A179" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B179" s="3">
@@ -24358,8 +25259,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
+    <row r="180" spans="1:18">
+      <c r="A180" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B180" s="3">
@@ -24422,8 +25323,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
+    <row r="181" spans="1:18">
+      <c r="A181" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B181" s="3">
@@ -24486,8 +25387,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
+    <row r="182" spans="1:18">
+      <c r="A182" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B182" s="3">
@@ -24550,8 +25451,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
+    <row r="183" spans="1:18">
+      <c r="A183" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B183" s="3">
@@ -24614,8 +25515,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
+    <row r="184" spans="1:18">
+      <c r="A184" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B184" s="3">
@@ -24678,8 +25579,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A185" t="s">
+    <row r="185" spans="1:18">
+      <c r="A185" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B185" s="3">
@@ -24742,8 +25643,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
+    <row r="186" spans="1:18">
+      <c r="A186" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B186" s="3">
@@ -24806,8 +25707,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
+    <row r="187" spans="1:18">
+      <c r="A187" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B187" s="3">
@@ -24870,8 +25771,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A188" t="s">
+    <row r="188" spans="1:18">
+      <c r="A188" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B188" s="3">
@@ -24934,8 +25835,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A189" t="s">
+    <row r="189" spans="1:18">
+      <c r="A189" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B189" s="3">
@@ -24998,8 +25899,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A190" t="s">
+    <row r="190" spans="1:18">
+      <c r="A190" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B190" s="3">
@@ -25062,8 +25963,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A191" t="s">
+    <row r="191" spans="1:18">
+      <c r="A191" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B191" s="3">
@@ -25126,8 +26027,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A192" t="s">
+    <row r="192" spans="1:18">
+      <c r="A192" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B192" s="3">
@@ -25190,8 +26091,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
+    <row r="193" spans="1:18">
+      <c r="A193" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B193" s="3">
@@ -25254,8 +26155,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A194" t="s">
+    <row r="194" spans="1:18">
+      <c r="A194" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B194" s="3">
@@ -25318,8 +26219,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A195" t="s">
+    <row r="195" spans="1:18">
+      <c r="A195" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B195" s="3">
@@ -25382,8 +26283,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A196" t="s">
+    <row r="196" spans="1:18">
+      <c r="A196" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B196" s="3">
@@ -25446,8 +26347,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
+    <row r="197" spans="1:18">
+      <c r="A197" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B197" s="3">
@@ -25510,8 +26411,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
+    <row r="198" spans="1:18">
+      <c r="A198" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B198" s="3">
@@ -25574,8 +26475,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
+    <row r="199" spans="1:18">
+      <c r="A199" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B199" s="3">
@@ -25638,8 +26539,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A200" t="s">
+    <row r="200" spans="1:18">
+      <c r="A200" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B200" s="3">
@@ -25702,8 +26603,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A201" t="s">
+    <row r="201" spans="1:18">
+      <c r="A201" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B201" s="3">
@@ -25766,8 +26667,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A202" t="s">
+    <row r="202" spans="1:18">
+      <c r="A202" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B202" s="3">
@@ -25830,40 +26731,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A203" t="s">
+    <row r="203" spans="1:18">
+      <c r="A203" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B203" s="3">
         <v>0</v>
       </c>
-      <c r="C203" s="4" t="s">
-        <v>18</v>
+      <c r="C203" s="4">
+        <v>1.5012000000000001</v>
       </c>
       <c r="D203" s="4">
         <v>10.507</v>
       </c>
-      <c r="E203" s="4" t="s">
-        <v>18</v>
+      <c r="E203" s="4">
+        <v>0.58360999999999996</v>
       </c>
       <c r="F203" s="4">
         <v>14.042</v>
       </c>
-      <c r="G203" s="4" t="s">
-        <v>18</v>
+      <c r="G203" s="4">
+        <v>5.6397999999999997E-2</v>
       </c>
       <c r="H203" s="4">
         <v>17.687000000000001</v>
       </c>
-      <c r="I203" s="4" t="s">
-        <v>18</v>
+      <c r="I203" s="4">
+        <v>0.1363</v>
       </c>
       <c r="J203" s="4">
         <v>22.606000000000002</v>
       </c>
       <c r="K203" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203" s="4">
         <f t="shared" si="25"/>
@@ -25875,7 +26776,7 @@
       </c>
       <c r="N203" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O203" s="4">
         <f t="shared" si="28"/>
@@ -25887,47 +26788,47 @@
       </c>
       <c r="Q203">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R203">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A204" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
+      <c r="A204" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B204" s="3">
         <v>0.05</v>
       </c>
-      <c r="C204" s="4" t="s">
-        <v>18</v>
+      <c r="C204" s="4">
+        <v>1.4787999999999999</v>
       </c>
       <c r="D204" s="4">
         <v>8.9515999999999991</v>
       </c>
-      <c r="E204" s="4" t="s">
-        <v>18</v>
+      <c r="E204" s="4">
+        <v>0.51685999999999999</v>
       </c>
       <c r="F204" s="4">
         <v>6.423</v>
       </c>
-      <c r="G204" s="4" t="s">
-        <v>18</v>
+      <c r="G204" s="4">
+        <v>1.5596E-2</v>
       </c>
       <c r="H204" s="4">
         <v>24.283999999999999</v>
       </c>
-      <c r="I204" s="4" t="s">
-        <v>18</v>
+      <c r="I204" s="4">
+        <v>6.2909000000000003E-3</v>
       </c>
       <c r="J204" s="4">
         <v>19.132000000000001</v>
       </c>
       <c r="K204" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204" s="4">
         <f t="shared" si="25"/>
@@ -25939,7 +26840,7 @@
       </c>
       <c r="N204" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O204" s="4">
         <f t="shared" si="28"/>
@@ -25951,40 +26852,40 @@
       </c>
       <c r="Q204">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R204">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A205" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
+      <c r="A205" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B205" s="3">
         <v>0.1</v>
       </c>
-      <c r="C205" s="4" t="s">
-        <v>18</v>
+      <c r="C205" s="4">
+        <v>1.4750000000000001</v>
       </c>
       <c r="D205" s="4">
         <v>1.1883999999999999</v>
       </c>
-      <c r="E205" s="4" t="s">
-        <v>18</v>
+      <c r="E205" s="4">
+        <v>0.51195000000000002</v>
       </c>
       <c r="F205" s="4">
         <v>0.37895000000000001</v>
       </c>
-      <c r="G205" s="4" t="s">
-        <v>18</v>
+      <c r="G205" s="4">
+        <v>1.7291000000000001E-2</v>
       </c>
       <c r="H205" s="4">
         <v>2.4459999999999999E-2</v>
       </c>
-      <c r="I205" s="4" t="s">
-        <v>18</v>
+      <c r="I205" s="4">
+        <v>6.3112000000000003E-3</v>
       </c>
       <c r="J205" s="4">
         <v>4.1679000000000004E-3</v>
@@ -25995,7 +26896,7 @@
       </c>
       <c r="L205" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205" s="4">
         <f t="shared" si="26"/>
@@ -26007,7 +26908,7 @@
       </c>
       <c r="O205" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P205" s="4">
         <f t="shared" si="29"/>
@@ -26022,33 +26923,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A206" t="s">
+    <row r="206" spans="1:18">
+      <c r="A206" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B206" s="3">
         <v>0.15</v>
       </c>
-      <c r="C206" s="4" t="s">
-        <v>18</v>
+      <c r="C206" s="4">
+        <v>1.4693000000000001</v>
       </c>
       <c r="D206" s="4">
         <v>1.2013</v>
       </c>
-      <c r="E206" s="4" t="s">
-        <v>18</v>
+      <c r="E206" s="4">
+        <v>0.50641000000000003</v>
       </c>
       <c r="F206" s="4">
         <v>0.39273000000000002</v>
       </c>
-      <c r="G206" s="4" t="s">
-        <v>18</v>
+      <c r="G206" s="4">
+        <v>1.6412E-2</v>
       </c>
       <c r="H206" s="4">
         <v>5.3670000000000002E-2</v>
       </c>
-      <c r="I206" s="4" t="s">
-        <v>18</v>
+      <c r="I206" s="4">
+        <v>6.2776000000000004E-3</v>
       </c>
       <c r="J206" s="4">
         <v>3.8641000000000001E-3</v>
@@ -26059,7 +26960,7 @@
       </c>
       <c r="L206" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M206" s="4">
         <f t="shared" si="26"/>
@@ -26071,7 +26972,7 @@
       </c>
       <c r="O206" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P206" s="4">
         <f t="shared" si="29"/>
@@ -26086,33 +26987,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A207" t="s">
+    <row r="207" spans="1:18">
+      <c r="A207" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B207" s="3">
         <v>0.2</v>
       </c>
-      <c r="C207" s="4" t="s">
-        <v>18</v>
+      <c r="C207" s="4">
+        <v>1.4624999999999999</v>
       </c>
       <c r="D207" s="4">
         <v>1.1941999999999999</v>
       </c>
-      <c r="E207" s="4" t="s">
-        <v>18</v>
+      <c r="E207" s="4">
+        <v>0.49997000000000003</v>
       </c>
       <c r="F207" s="4">
         <v>0.40594999999999998</v>
       </c>
-      <c r="G207" s="4" t="s">
-        <v>18</v>
+      <c r="G207" s="4">
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="H207" s="4">
         <v>1.2328E-2</v>
       </c>
-      <c r="I207" s="4" t="s">
-        <v>18</v>
+      <c r="I207" s="4">
+        <v>5.9112000000000001E-3</v>
       </c>
       <c r="J207" s="4">
         <v>2.8403E-3</v>
@@ -26123,7 +27024,7 @@
       </c>
       <c r="L207" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M207" s="4">
         <f t="shared" si="26"/>
@@ -26135,7 +27036,7 @@
       </c>
       <c r="O207" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P207" s="4">
         <f t="shared" si="29"/>
@@ -26150,33 +27051,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A208" t="s">
+    <row r="208" spans="1:18">
+      <c r="A208" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B208" s="3">
         <v>0.25</v>
       </c>
-      <c r="C208" s="4" t="s">
-        <v>18</v>
+      <c r="C208" s="4">
+        <v>1.4541999999999999</v>
       </c>
       <c r="D208" s="4">
         <v>1.2152000000000001</v>
       </c>
-      <c r="E208" s="4" t="s">
-        <v>18</v>
+      <c r="E208" s="4">
+        <v>0.49238999999999999</v>
       </c>
       <c r="F208" s="4">
         <v>0.4214</v>
       </c>
-      <c r="G208" s="4" t="s">
-        <v>18</v>
+      <c r="G208" s="4">
+        <v>1.6011999999999998E-2</v>
       </c>
       <c r="H208" s="4">
         <v>1.4233000000000001E-2</v>
       </c>
-      <c r="I208" s="4" t="s">
-        <v>18</v>
+      <c r="I208" s="4">
+        <v>5.7939999999999997E-3</v>
       </c>
       <c r="J208" s="4">
         <v>2.6483000000000001E-3</v>
@@ -26187,7 +27088,7 @@
       </c>
       <c r="L208" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M208" s="4">
         <f t="shared" si="26"/>
@@ -26199,7 +27100,7 @@
       </c>
       <c r="O208" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P208" s="4">
         <f t="shared" si="29"/>
@@ -26214,33 +27115,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A209" t="s">
+    <row r="209" spans="1:18">
+      <c r="A209" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B209" s="3">
         <v>0.3</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>18</v>
+      <c r="C209" s="4">
+        <v>1.4449000000000001</v>
       </c>
       <c r="D209" s="4">
         <v>1.2504999999999999</v>
       </c>
-      <c r="E209" s="4" t="s">
-        <v>18</v>
+      <c r="E209" s="4">
+        <v>0.48433999999999999</v>
       </c>
       <c r="F209" s="4">
         <v>0.44557999999999998</v>
       </c>
-      <c r="G209" s="4" t="s">
-        <v>18</v>
+      <c r="G209" s="4">
+        <v>1.6056000000000001E-2</v>
       </c>
       <c r="H209" s="4">
         <v>2.7573E-2</v>
       </c>
-      <c r="I209" s="4" t="s">
-        <v>18</v>
+      <c r="I209" s="4">
+        <v>6.0073000000000001E-3</v>
       </c>
       <c r="J209" s="4">
         <v>6.0536000000000001E-3</v>
@@ -26251,7 +27152,7 @@
       </c>
       <c r="L209" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M209" s="4">
         <f t="shared" si="26"/>
@@ -26263,7 +27164,7 @@
       </c>
       <c r="O209" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P209" s="4">
         <f t="shared" si="29"/>
@@ -26278,33 +27179,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A210" t="s">
+    <row r="210" spans="1:18">
+      <c r="A210" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B210" s="3">
         <v>0.35</v>
       </c>
-      <c r="C210" s="4" t="s">
-        <v>18</v>
+      <c r="C210" s="4">
+        <v>1.4352</v>
       </c>
       <c r="D210" s="4">
         <v>1.2805</v>
       </c>
-      <c r="E210" s="4" t="s">
-        <v>18</v>
+      <c r="E210" s="4">
+        <v>0.47567999999999999</v>
       </c>
       <c r="F210" s="4">
         <v>0.47310000000000002</v>
       </c>
-      <c r="G210" s="4" t="s">
-        <v>18</v>
+      <c r="G210" s="4">
+        <v>1.6819000000000001E-2</v>
       </c>
       <c r="H210" s="4">
         <v>1.5278E-2</v>
       </c>
-      <c r="I210" s="4" t="s">
-        <v>18</v>
+      <c r="I210" s="4">
+        <v>6.2557999999999997E-3</v>
       </c>
       <c r="J210" s="4">
         <v>3.336E-3</v>
@@ -26315,7 +27216,7 @@
       </c>
       <c r="L210" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M210" s="4">
         <f t="shared" si="26"/>
@@ -26323,7 +27224,7 @@
       </c>
       <c r="N210" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O210" s="4">
         <f t="shared" si="28"/>
@@ -26342,33 +27243,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A211" t="s">
+    <row r="211" spans="1:18">
+      <c r="A211" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B211" s="3">
         <v>0.4</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>18</v>
+      <c r="C211" s="4">
+        <v>1.4655</v>
       </c>
       <c r="D211" s="4">
         <v>1.3364</v>
       </c>
-      <c r="E211" s="4" t="s">
-        <v>18</v>
+      <c r="E211" s="4">
+        <v>0.46844999999999998</v>
       </c>
       <c r="F211" s="4">
         <v>0.50258999999999998</v>
       </c>
-      <c r="G211" s="4" t="s">
-        <v>18</v>
+      <c r="G211" s="4">
+        <v>0.11876</v>
       </c>
       <c r="H211" s="4">
         <v>4.6324999999999998E-2</v>
       </c>
-      <c r="I211" s="4" t="s">
-        <v>18</v>
+      <c r="I211" s="4">
+        <v>9.1523999999999998E-3</v>
       </c>
       <c r="J211" s="4">
         <v>3.434E-3</v>
@@ -26379,7 +27280,7 @@
       </c>
       <c r="L211" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M211" s="4">
         <f t="shared" si="26"/>
@@ -26395,7 +27296,7 @@
       </c>
       <c r="P211" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q211">
         <f t="shared" si="30"/>
@@ -26403,43 +27304,43 @@
       </c>
       <c r="R211">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A212" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18">
+      <c r="A212" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B212" s="3">
         <v>0.45</v>
       </c>
-      <c r="C212" s="4" t="s">
-        <v>18</v>
+      <c r="C212" s="4">
+        <v>1.4111</v>
       </c>
       <c r="D212" s="4">
         <v>1.3728</v>
       </c>
-      <c r="E212" s="4" t="s">
-        <v>18</v>
+      <c r="E212" s="4">
+        <v>0.45635999999999999</v>
       </c>
       <c r="F212" s="4">
         <v>0.53098000000000001</v>
       </c>
-      <c r="G212" s="4" t="s">
-        <v>18</v>
+      <c r="G212" s="4">
+        <v>1.6212000000000001E-2</v>
       </c>
       <c r="H212" s="4">
         <v>3.5129000000000001E-2</v>
       </c>
-      <c r="I212" s="4" t="s">
-        <v>18</v>
+      <c r="I212" s="4">
+        <v>6.0514999999999996E-3</v>
       </c>
       <c r="J212" s="4">
         <v>6.0499000000000004E-3</v>
       </c>
       <c r="K212" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212" s="4">
         <f t="shared" si="25"/>
@@ -26459,7 +27360,7 @@
       </c>
       <c r="P212" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q212">
         <f t="shared" si="30"/>
@@ -26467,43 +27368,43 @@
       </c>
       <c r="R212">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18">
+      <c r="A213" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B213" s="3">
         <v>0.5</v>
       </c>
-      <c r="C213" s="4" t="s">
-        <v>18</v>
+      <c r="C213" s="4">
+        <v>1.3953</v>
       </c>
       <c r="D213" s="4">
         <v>1.3867</v>
       </c>
-      <c r="E213" s="4" t="s">
-        <v>18</v>
+      <c r="E213" s="4">
+        <v>0.44540999999999997</v>
       </c>
       <c r="F213" s="4">
         <v>0.54969000000000001</v>
       </c>
-      <c r="G213" s="4" t="s">
-        <v>18</v>
+      <c r="G213" s="4">
+        <v>1.6043999999999999E-2</v>
       </c>
       <c r="H213" s="4">
         <v>1.5187000000000001E-2</v>
       </c>
-      <c r="I213" s="4" t="s">
-        <v>18</v>
+      <c r="I213" s="4">
+        <v>6.0657999999999997E-3</v>
       </c>
       <c r="J213" s="4">
         <v>8.0692000000000003E-3</v>
       </c>
       <c r="K213" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L213" s="4">
         <f t="shared" si="25"/>
@@ -26523,7 +27424,7 @@
       </c>
       <c r="P213" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q213">
         <f t="shared" si="30"/>
@@ -26531,43 +27432,43 @@
       </c>
       <c r="R213">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A214" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
+      <c r="A214" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B214" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C214" s="4" t="s">
-        <v>18</v>
+      <c r="C214" s="4">
+        <v>1.3913</v>
       </c>
       <c r="D214" s="4">
         <v>1.4128000000000001</v>
       </c>
-      <c r="E214" s="4" t="s">
-        <v>18</v>
+      <c r="E214" s="4">
+        <v>0.43414999999999998</v>
       </c>
       <c r="F214" s="4">
         <v>0.56003000000000003</v>
       </c>
-      <c r="G214" s="4" t="s">
-        <v>18</v>
+      <c r="G214" s="4">
+        <v>5.2259E-2</v>
       </c>
       <c r="H214" s="4">
         <v>1.9737999999999999E-2</v>
       </c>
-      <c r="I214" s="4" t="s">
-        <v>18</v>
+      <c r="I214" s="4">
+        <v>6.2281000000000003E-3</v>
       </c>
       <c r="J214" s="4">
         <v>8.1101999999999997E-3</v>
       </c>
       <c r="K214" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214" s="4">
         <f t="shared" si="25"/>
@@ -26587,44 +27488,44 @@
       </c>
       <c r="P214" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q214">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R214">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A215" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
+      <c r="A215" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B215" s="3">
         <v>0.6</v>
       </c>
-      <c r="C215" s="4" t="s">
-        <v>18</v>
+      <c r="C215" s="4">
+        <v>1.357</v>
       </c>
       <c r="D215" s="4">
         <v>1.4072</v>
       </c>
-      <c r="E215" s="4" t="s">
-        <v>18</v>
+      <c r="E215" s="4">
+        <v>0.42204999999999998</v>
       </c>
       <c r="F215" s="4">
         <v>0.55320999999999998</v>
       </c>
-      <c r="G215" s="4" t="s">
-        <v>18</v>
+      <c r="G215" s="4">
+        <v>1.6209000000000001E-2</v>
       </c>
       <c r="H215" s="4">
         <v>1.8468999999999999E-2</v>
       </c>
-      <c r="I215" s="4" t="s">
-        <v>18</v>
+      <c r="I215" s="4">
+        <v>5.4609999999999997E-3</v>
       </c>
       <c r="J215" s="4">
         <v>1.0137E-2</v>
@@ -26639,7 +27540,7 @@
       </c>
       <c r="M215" s="4">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N215" s="4">
         <f t="shared" si="27"/>
@@ -26651,44 +27552,44 @@
       </c>
       <c r="P215" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q215">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R215">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A216" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
+      <c r="A216" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B216" s="3">
         <v>0.65</v>
       </c>
-      <c r="C216" s="4" t="s">
-        <v>18</v>
+      <c r="C216" s="4">
+        <v>1.3331999999999999</v>
       </c>
       <c r="D216" s="4">
         <v>1.4137</v>
       </c>
-      <c r="E216" s="4" t="s">
-        <v>18</v>
+      <c r="E216" s="4">
+        <v>0.40949999999999998</v>
       </c>
       <c r="F216" s="4">
         <v>0.54356000000000004</v>
       </c>
-      <c r="G216" s="4" t="s">
-        <v>18</v>
+      <c r="G216" s="4">
+        <v>1.6008000000000001E-2</v>
       </c>
       <c r="H216" s="4">
         <v>2.5248E-2</v>
       </c>
-      <c r="I216" s="4" t="s">
-        <v>18</v>
+      <c r="I216" s="4">
+        <v>5.4583000000000001E-3</v>
       </c>
       <c r="J216" s="4">
         <v>9.1442999999999993E-3</v>
@@ -26703,7 +27604,7 @@
       </c>
       <c r="M216" s="4">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N216" s="4">
         <f t="shared" si="27"/>
@@ -26715,44 +27616,44 @@
       </c>
       <c r="P216" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q216">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R216">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A217" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
+      <c r="A217" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B217" s="3">
         <v>0.7</v>
       </c>
-      <c r="C217" s="4" t="s">
-        <v>18</v>
+      <c r="C217" s="4">
+        <v>1.3097000000000001</v>
       </c>
       <c r="D217" s="4">
         <v>1.3988</v>
       </c>
-      <c r="E217" s="4" t="s">
-        <v>18</v>
+      <c r="E217" s="4">
+        <v>0.39734000000000003</v>
       </c>
       <c r="F217" s="4">
         <v>0.52476999999999996</v>
       </c>
-      <c r="G217" s="4" t="s">
-        <v>18</v>
+      <c r="G217" s="4">
+        <v>1.8813E-2</v>
       </c>
       <c r="H217" s="4">
         <v>1.8127000000000001E-2</v>
       </c>
-      <c r="I217" s="4" t="s">
-        <v>18</v>
+      <c r="I217" s="4">
+        <v>5.3109999999999997E-3</v>
       </c>
       <c r="J217" s="4">
         <v>1.0843999999999999E-2</v>
@@ -26767,7 +27668,7 @@
       </c>
       <c r="M217" s="4">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N217" s="4">
         <f t="shared" si="27"/>
@@ -26779,44 +27680,44 @@
       </c>
       <c r="P217" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q217">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R217">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A218" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
+      <c r="A218" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B218" s="3">
         <v>0.75</v>
       </c>
-      <c r="C218" s="4" t="s">
-        <v>18</v>
+      <c r="C218" s="4">
+        <v>1.2819</v>
       </c>
       <c r="D218" s="4">
         <v>1.4139999999999999</v>
       </c>
-      <c r="E218" s="4" t="s">
-        <v>18</v>
+      <c r="E218" s="4">
+        <v>0.38532</v>
       </c>
       <c r="F218" s="4">
         <v>0.50643000000000005</v>
       </c>
-      <c r="G218" s="4" t="s">
-        <v>18</v>
+      <c r="G218" s="4">
+        <v>2.6169000000000001E-2</v>
       </c>
       <c r="H218" s="4">
         <v>1.3221999999999999E-2</v>
       </c>
-      <c r="I218" s="4" t="s">
-        <v>18</v>
+      <c r="I218" s="4">
+        <v>5.4159999999999998E-3</v>
       </c>
       <c r="J218" s="4">
         <v>8.6768000000000001E-3</v>
@@ -26831,7 +27732,7 @@
       </c>
       <c r="M218" s="4">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N218" s="4">
         <f t="shared" si="27"/>
@@ -26843,44 +27744,44 @@
       </c>
       <c r="P218" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q218">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R218">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A219" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
+      <c r="A219" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B219" s="3">
         <v>0.8</v>
       </c>
-      <c r="C219" s="4" t="s">
-        <v>18</v>
+      <c r="C219" s="4">
+        <v>1.2423999999999999</v>
       </c>
       <c r="D219" s="4">
         <v>1.4490000000000001</v>
       </c>
-      <c r="E219" s="4" t="s">
-        <v>18</v>
+      <c r="E219" s="4">
+        <v>0.37490000000000001</v>
       </c>
       <c r="F219" s="4">
         <v>0.49970999999999999</v>
       </c>
-      <c r="G219" s="4" t="s">
-        <v>18</v>
+      <c r="G219" s="4">
+        <v>1.4697E-2</v>
       </c>
       <c r="H219" s="4">
         <v>1.7703E-2</v>
       </c>
-      <c r="I219" s="4" t="s">
-        <v>18</v>
+      <c r="I219" s="4">
+        <v>5.2705E-3</v>
       </c>
       <c r="J219" s="4">
         <v>7.2283E-3</v>
@@ -26895,7 +27796,7 @@
       </c>
       <c r="M219" s="4">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N219" s="4">
         <f t="shared" si="27"/>
@@ -26907,44 +27808,44 @@
       </c>
       <c r="P219" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q219">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R219">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A220" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18">
+      <c r="A220" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B220" s="3">
         <v>0.85</v>
       </c>
-      <c r="C220" s="4" t="s">
-        <v>18</v>
+      <c r="C220" s="4">
+        <v>1.2078</v>
       </c>
       <c r="D220" s="4">
         <v>1.5603</v>
       </c>
-      <c r="E220" s="4" t="s">
-        <v>18</v>
+      <c r="E220" s="4">
+        <v>0.36934</v>
       </c>
       <c r="F220" s="4">
         <v>0.52088000000000001</v>
       </c>
-      <c r="G220" s="4" t="s">
-        <v>18</v>
+      <c r="G220" s="4">
+        <v>1.4427000000000001E-2</v>
       </c>
       <c r="H220" s="4">
         <v>0.12203</v>
       </c>
-      <c r="I220" s="4" t="s">
-        <v>18</v>
+      <c r="I220" s="4">
+        <v>4.8224000000000001E-3</v>
       </c>
       <c r="J220" s="4">
         <v>8.3213000000000002E-3</v>
@@ -26959,7 +27860,7 @@
       </c>
       <c r="M220" s="4">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N220" s="4">
         <f t="shared" si="27"/>
@@ -26971,47 +27872,47 @@
       </c>
       <c r="P220" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q220">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R220">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A221" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18">
+      <c r="A221" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B221" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C221" s="4">
-        <v>0.39624999999999999</v>
-      </c>
-      <c r="D221" s="4">
-        <v>1.901</v>
+        <v>1.1796</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E221" s="4">
-        <v>0.17660000000000001</v>
-      </c>
-      <c r="F221" s="4">
-        <v>1.2042999999999999</v>
+        <v>0.37330999999999998</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G221" s="4">
-        <v>3.7001999999999998E-3</v>
-      </c>
-      <c r="H221" s="4">
-        <v>2.1284000000000001E-2</v>
+        <v>1.2997999999999999E-2</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I221" s="4">
-        <v>1.2551999999999999E-3</v>
-      </c>
-      <c r="J221" s="4">
-        <v>2.1731E-2</v>
+        <v>4.9559000000000001E-3</v>
+      </c>
+      <c r="J221" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K221" s="4">
         <f t="shared" si="24"/>
@@ -27023,7 +27924,7 @@
       </c>
       <c r="M221" s="4">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N221" s="4">
         <f t="shared" si="27"/>
@@ -27035,7 +27936,7 @@
       </c>
       <c r="P221" s="4">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q221">
         <f t="shared" si="30"/>
@@ -27043,6 +27944,134 @@
       </c>
       <c r="R221">
         <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
+      <c r="A222" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B222" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="C222" s="4">
+        <v>1.1835</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="4">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" s="4">
+        <v>1.3762E-2</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I222" s="4">
+        <v>3.2331999999999999E-3</v>
+      </c>
+      <c r="J222" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K222" s="4">
+        <f t="shared" ref="K222:K223" si="32">IFERROR(IF(ABS(C222-D222)&lt;SQRT(G222^2+H222^2),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L222" s="4">
+        <f t="shared" ref="L222:L223" si="33">IFERROR(IF((C222-D222)&gt;SQRT(G222^2+H222^2),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M222" s="4">
+        <f t="shared" ref="M222:M223" si="34">IFERROR(IF((D222-C222)&gt;SQRT(G222^2+H222^2),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N222" s="4">
+        <f t="shared" ref="N222:N223" si="35">IFERROR(IF(ABS(E222-F222)&lt;SQRT(I222^2+J222^2),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O222" s="4">
+        <f t="shared" ref="O222:O223" si="36">IFERROR(IF((E222-F222)&gt;SQRT(I222^2+J222^2),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P222" s="4">
+        <f t="shared" ref="P222:P223" si="37">IFERROR(IF((F222-E222)&gt;SQRT(I222^2+J222^2),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <f t="shared" ref="Q222:Q223" si="38">(C222&lt;D222)*1</f>
+        <v>1</v>
+      </c>
+      <c r="R222">
+        <f t="shared" ref="R222:R223" si="39">(E222&lt;F222)*1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
+      <c r="A223" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B223" s="3">
+        <v>0</v>
+      </c>
+      <c r="C223" s="4">
+        <v>0.39624999999999999</v>
+      </c>
+      <c r="D223" s="4">
+        <v>1.901</v>
+      </c>
+      <c r="E223" s="4">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="F223" s="4">
+        <v>1.2042999999999999</v>
+      </c>
+      <c r="G223" s="4">
+        <v>3.7001999999999998E-3</v>
+      </c>
+      <c r="H223" s="4">
+        <v>2.1284000000000001E-2</v>
+      </c>
+      <c r="I223" s="4">
+        <v>1.2551999999999999E-3</v>
+      </c>
+      <c r="J223" s="4">
+        <v>2.1731E-2</v>
+      </c>
+      <c r="K223" s="4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L223" s="4">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M223" s="4">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="N223" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O223" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P223" s="4">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="Q223">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="R223">
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>

--- a/outputs/hyperparam_search_mnist_train_grouped_analysis.xlsx
+++ b/outputs/hyperparam_search_mnist_train_grouped_analysis.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-rmadhavan\projects\curvatureStep\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEE8CB0-129D-478C-9EF1-1E521364A6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E92798C-BBF0-4CDA-A726-C37058432F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" activeTab="1" xr2:uid="{923E0CDC-C3D7-421B-8369-4E0352F35392}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" activeTab="2" xr2:uid="{923E0CDC-C3D7-421B-8369-4E0352F35392}"/>
   </bookViews>
   <sheets>
     <sheet name="hyperparam_search_mnist_train_g" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="curvature" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="curvature" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="72">
   <si>
     <t>Optimizer Name</t>
   </si>
@@ -191,6 +192,66 @@
   </si>
   <si>
     <t>ShampooCurvature</t>
+  </si>
+  <si>
+    <t>Mean Training Loss epoch1</t>
+  </si>
+  <si>
+    <t>Mean Training Loss epoch10</t>
+  </si>
+  <si>
+    <t>Mean Training Loss epoch2</t>
+  </si>
+  <si>
+    <t>Mean Training Loss epoch3</t>
+  </si>
+  <si>
+    <t>Mean Training Loss epoch4</t>
+  </si>
+  <si>
+    <t>Mean Training Loss epoch5</t>
+  </si>
+  <si>
+    <t>Mean Training Loss epoch6</t>
+  </si>
+  <si>
+    <t>Mean Training Loss epoch7</t>
+  </si>
+  <si>
+    <t>Mean Training Loss epoch8</t>
+  </si>
+  <si>
+    <t>Mean Training Loss epoch9</t>
+  </si>
+  <si>
+    <t>Std Training Loss epoch1</t>
+  </si>
+  <si>
+    <t>Std Training Loss epoch10</t>
+  </si>
+  <si>
+    <t>Std Training Loss epoch2</t>
+  </si>
+  <si>
+    <t>Std Training Loss epoch3</t>
+  </si>
+  <si>
+    <t>Std Training Loss epoch4</t>
+  </si>
+  <si>
+    <t>Std Training Loss epoch5</t>
+  </si>
+  <si>
+    <t>Std Training Loss epoch6</t>
+  </si>
+  <si>
+    <t>Std Training Loss epoch7</t>
+  </si>
+  <si>
+    <t>Std Training Loss epoch8</t>
+  </si>
+  <si>
+    <t>Std Training Loss epoch9</t>
   </si>
 </sst>
 </file>
@@ -693,7 +754,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -711,6 +772,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1185,7 +1252,7 @@
         <v>3.3633000000000001E-3</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G2:G33" si="1">IF($A3=$A2,"",MIN(C3:C22))</f>
+        <f t="shared" ref="G3:G33" si="1">IF($A3=$A2,"",MIN(C3:C22))</f>
         <v/>
       </c>
       <c r="H3" s="1" t="str">
@@ -13466,7 +13533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E345A74F-CC6F-4DD6-B0B3-DDEB23E95545}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -13781,6 +13848,1068 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7977E-091C-4FA7-A4E2-2841DE3ED16B}">
+  <dimension ref="A1:U16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="9" customFormat="1" ht="42.75">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.39650999999999997</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.17593</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.13056999999999999</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.10600999999999999</v>
+      </c>
+      <c r="F2" s="10">
+        <v>9.0359999999999996E-2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>7.8769999999999896E-2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>6.973E-2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>6.1949999999999901E-2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>5.586E-2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>5.067E-2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>3.5126596444542899E-3</v>
+      </c>
+      <c r="M2" s="10">
+        <v>2.5403630536685999E-3</v>
+      </c>
+      <c r="N2" s="10">
+        <v>2.1401194151521399E-3</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2.1824807495650902E-3</v>
+      </c>
+      <c r="P2" s="10">
+        <v>2.3358082113050199E-3</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>2.0412686686905601E-3</v>
+      </c>
+      <c r="R2" s="10">
+        <v>2.1878706035270402E-3</v>
+      </c>
+      <c r="S2" s="10">
+        <v>1.55008960314485E-3</v>
+      </c>
+      <c r="T2" s="10">
+        <v>1.67544355652797E-3</v>
+      </c>
+      <c r="U2" s="10">
+        <v>2.11715217528956E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.33451999999999998</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.15764</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.12197</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.10183</v>
+      </c>
+      <c r="F3" s="10">
+        <v>8.8569999999999996E-2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>7.0669999999999997E-2</v>
+      </c>
+      <c r="I3" s="10">
+        <v>6.429E-2</v>
+      </c>
+      <c r="J3" s="10">
+        <v>5.8869999999999999E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <v>5.3259999999999898E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <v>7.44622201000092E-3</v>
+      </c>
+      <c r="M3" s="10">
+        <v>4.3025057298690002E-3</v>
+      </c>
+      <c r="N3" s="10">
+        <v>4.4098500856352999E-3</v>
+      </c>
+      <c r="O3" s="10">
+        <v>3.4826713884603001E-3</v>
+      </c>
+      <c r="P3" s="10">
+        <v>4.4251930278049198E-3</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>4.2915938505149499E-3</v>
+      </c>
+      <c r="R3" s="10">
+        <v>3.510001582779E-3</v>
+      </c>
+      <c r="S3" s="10">
+        <v>4.8353903668680101E-3</v>
+      </c>
+      <c r="T3" s="10">
+        <v>4.2557281659220403E-3</v>
+      </c>
+      <c r="U3" s="10">
+        <v>3.9721810409675696E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.33463999999999999</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.12209</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.10172</v>
+      </c>
+      <c r="F4" s="10">
+        <v>8.8459999999999997E-2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>7.9159999999999994E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>7.0749999999999993E-2</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6.4070000000000002E-2</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5.8650000000000001E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>5.3510000000000002E-2</v>
+      </c>
+      <c r="L4" s="10">
+        <v>7.5997368375490502E-3</v>
+      </c>
+      <c r="M4" s="10">
+        <v>4.9475021756213199E-3</v>
+      </c>
+      <c r="N4" s="10">
+        <v>4.2193864746219003E-3</v>
+      </c>
+      <c r="O4" s="10">
+        <v>3.9608641032537802E-3</v>
+      </c>
+      <c r="P4" s="10">
+        <v>4.3202880562398602E-3</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>4.3484863266811903E-3</v>
+      </c>
+      <c r="R4" s="10">
+        <v>3.9010682297715899E-3</v>
+      </c>
+      <c r="S4" s="10">
+        <v>4.1931293008126199E-3</v>
+      </c>
+      <c r="T4" s="10">
+        <v>4.3856457778631503E-3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>3.6957783723835201E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.38229000000000002</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.19563999999999901</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.14118999999999901</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.11287</v>
+      </c>
+      <c r="F5" s="10">
+        <v>9.4750000000000001E-2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>8.2960000000000006E-2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>7.2669999999999998E-2</v>
+      </c>
+      <c r="I5" s="10">
+        <v>6.5310000000000007E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>5.876E-2</v>
+      </c>
+      <c r="K5" s="10">
+        <v>5.4109999999999998E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <v>5.5167321244857601E-3</v>
+      </c>
+      <c r="M5" s="10">
+        <v>5.3145920717293802E-3</v>
+      </c>
+      <c r="N5" s="10">
+        <v>3.9658122329059601E-3</v>
+      </c>
+      <c r="O5" s="10">
+        <v>3.9001566920089498E-3</v>
+      </c>
+      <c r="P5" s="10">
+        <v>3.1570907846025201E-3</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>3.3596296092145502E-3</v>
+      </c>
+      <c r="R5" s="10">
+        <v>3.0074167578763599E-3</v>
+      </c>
+      <c r="S5" s="10">
+        <v>2.7746671472048301E-3</v>
+      </c>
+      <c r="T5" s="10">
+        <v>2.7236413534498598E-3</v>
+      </c>
+      <c r="U5" s="10">
+        <v>2.7646378103148E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.3821</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.19528000000000001</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.113579999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>9.6640000000000004E-2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>8.5010000000000002E-2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>6.7879999999999996E-2</v>
+      </c>
+      <c r="J6" s="10">
+        <v>6.2439999999999898E-2</v>
+      </c>
+      <c r="K6" s="10">
+        <v>5.7709999999999997E-2</v>
+      </c>
+      <c r="L6" s="10">
+        <v>5.37359800836976E-3</v>
+      </c>
+      <c r="M6" s="10">
+        <v>5.1744672296876199E-3</v>
+      </c>
+      <c r="N6" s="10">
+        <v>4.2429025704371504E-3</v>
+      </c>
+      <c r="O6" s="10">
+        <v>4.0731642081638002E-3</v>
+      </c>
+      <c r="P6" s="10">
+        <v>2.8087957087216801E-3</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>2.9164095124732401E-3</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2.9024893530286101E-3</v>
+      </c>
+      <c r="S6" s="10">
+        <v>2.77920852042447E-3</v>
+      </c>
+      <c r="T6" s="10">
+        <v>2.88490323350137E-3</v>
+      </c>
+      <c r="U6" s="10">
+        <v>2.33497561253026E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.38242999999999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.19519</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.1416</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.11413</v>
+      </c>
+      <c r="F7" s="10">
+        <v>9.7250000000000003E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>8.5650000000000004E-2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>7.603E-2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>6.93E-2</v>
+      </c>
+      <c r="J7" s="10">
+        <v>6.3380000000000006E-2</v>
+      </c>
+      <c r="K7" s="10">
+        <v>5.8699999999999898E-2</v>
+      </c>
+      <c r="L7" s="10">
+        <v>5.1781699899138799E-3</v>
+      </c>
+      <c r="M7" s="10">
+        <v>4.9074659675052397E-3</v>
+      </c>
+      <c r="N7" s="10">
+        <v>4.1774527060292497E-3</v>
+      </c>
+      <c r="O7" s="10">
+        <v>3.9539150780516803E-3</v>
+      </c>
+      <c r="P7" s="10">
+        <v>2.78856793195201E-3</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>2.9923049458383802E-3</v>
+      </c>
+      <c r="R7" s="10">
+        <v>2.97995152831569E-3</v>
+      </c>
+      <c r="S7" s="10">
+        <v>2.6599916457679899E-3</v>
+      </c>
+      <c r="T7" s="10">
+        <v>2.8169329262712401E-3</v>
+      </c>
+      <c r="U7" s="10">
+        <v>2.64826987547215E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.37992999999999999</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.17809</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.13930999999999999</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.11817999999999999</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.10502</v>
+      </c>
+      <c r="G8" s="10">
+        <v>9.5449999999999993E-2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>8.745E-2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>8.1070000000000003E-2</v>
+      </c>
+      <c r="J8" s="10">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="K8" s="10">
+        <v>7.009E-2</v>
+      </c>
+      <c r="L8" s="10">
+        <v>5.7209264983916703E-3</v>
+      </c>
+      <c r="M8" s="10">
+        <v>4.5598367417168601E-3</v>
+      </c>
+      <c r="N8" s="10">
+        <v>4.0137126066634096E-3</v>
+      </c>
+      <c r="O8" s="10">
+        <v>3.35254463886098E-3</v>
+      </c>
+      <c r="P8" s="10">
+        <v>4.5394076950877899E-3</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>4.0349170444453301E-3</v>
+      </c>
+      <c r="R8" s="10">
+        <v>4.6339927588299997E-3</v>
+      </c>
+      <c r="S8" s="10">
+        <v>4.29781598282455E-3</v>
+      </c>
+      <c r="T8" s="10">
+        <v>4.4374667447893102E-3</v>
+      </c>
+      <c r="U8" s="10">
+        <v>3.7397118130204098E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1.5110300000000001</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.38729999999999998</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.28420999999999902</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.23752000000000001</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.20485</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.18046000000000001</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.16148000000000001</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.14627999999999999</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.13371</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.12331</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0.94794292145325498</v>
+      </c>
+      <c r="M9" s="10">
+        <v>2.1348484203281899E-2</v>
+      </c>
+      <c r="N9" s="10">
+        <v>4.1007993800666999E-3</v>
+      </c>
+      <c r="O9" s="10">
+        <v>4.2065557301801003E-3</v>
+      </c>
+      <c r="P9" s="10">
+        <v>4.1371622050762101E-3</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>3.8973495267082899E-3</v>
+      </c>
+      <c r="R9" s="10">
+        <v>3.74842189016478E-3</v>
+      </c>
+      <c r="S9" s="10">
+        <v>3.3976462440931002E-3</v>
+      </c>
+      <c r="T9" s="10">
+        <v>2.9471078101156001E-3</v>
+      </c>
+      <c r="U9" s="10">
+        <v>2.74244416533864E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.34122999999999998</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.16886999999999999</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.12631999999999999</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.12249</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.12197</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.12092</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.12472999999999999</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.13025</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.13142999999999999</v>
+      </c>
+      <c r="L10" s="10">
+        <v>4.9772928831287797E-3</v>
+      </c>
+      <c r="M10" s="10">
+        <v>4.3289849977923203E-3</v>
+      </c>
+      <c r="N10" s="10">
+        <v>2.6956755492207598E-3</v>
+      </c>
+      <c r="O10" s="10">
+        <v>2.1462111317906698E-3</v>
+      </c>
+      <c r="P10" s="10">
+        <v>2.1676664360038801E-3</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>2.5144250502517102E-3</v>
+      </c>
+      <c r="R10" s="10">
+        <v>2.76317048173128E-3</v>
+      </c>
+      <c r="S10" s="10">
+        <v>4.2481499241172902E-3</v>
+      </c>
+      <c r="T10" s="10">
+        <v>2.40011573795005E-3</v>
+      </c>
+      <c r="U10" s="10">
+        <v>3.0430430675741499E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.34081</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.16921</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.12617999999999999</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.12286999999999999</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.12161</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.12179</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.12503999999999901</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.12858</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.13328000000000001</v>
+      </c>
+      <c r="L11" s="10">
+        <v>4.4955410006904499E-3</v>
+      </c>
+      <c r="M11" s="10">
+        <v>3.9093761934894701E-3</v>
+      </c>
+      <c r="N11" s="10">
+        <v>3.1601687718643499E-3</v>
+      </c>
+      <c r="O11" s="10">
+        <v>2.3999074056212199E-3</v>
+      </c>
+      <c r="P11" s="10">
+        <v>3.0775350887069001E-3</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>2.5937745982769298E-3</v>
+      </c>
+      <c r="R11" s="10">
+        <v>2.4415159225366499E-3</v>
+      </c>
+      <c r="S11" s="10">
+        <v>3.6878780408853501E-3</v>
+      </c>
+      <c r="T11" s="10">
+        <v>2.9954780735116202E-3</v>
+      </c>
+      <c r="U11" s="10">
+        <v>4.9930618528781197E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.41832000000000003</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.27517000000000003</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.24026</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.21761</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.20108999999999999</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.18836</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.17785999999999999</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.16904</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.16148999999999999</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.15490999999999999</v>
+      </c>
+      <c r="L12" s="10">
+        <v>6.7617880606965098E-3</v>
+      </c>
+      <c r="M12" s="10">
+        <v>4.6229019265199801E-3</v>
+      </c>
+      <c r="N12" s="10">
+        <v>5.0319424126717199E-3</v>
+      </c>
+      <c r="O12" s="10">
+        <v>5.2589500430747097E-3</v>
+      </c>
+      <c r="P12" s="10">
+        <v>5.3707955131846504E-3</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>5.1974780209037702E-3</v>
+      </c>
+      <c r="R12" s="10">
+        <v>5.2858721555145904E-3</v>
+      </c>
+      <c r="S12" s="10">
+        <v>5.0925217503490104E-3</v>
+      </c>
+      <c r="T12" s="10">
+        <v>5.0645719354046898E-3</v>
+      </c>
+      <c r="U12" s="10">
+        <v>5.0696153700256303E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.77725999999999995</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.36868000000000001</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.32253999999999999</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.29565000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.27445999999999998</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.25613000000000002</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.23913000000000001</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.22388</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.21010999999999999</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.1978</v>
+      </c>
+      <c r="L13" s="10">
+        <v>1.15828609016368E-2</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1.6226179121681401E-3</v>
+      </c>
+      <c r="N13" s="10">
+        <v>2.60563491942622E-3</v>
+      </c>
+      <c r="O13" s="10">
+        <v>3.2132538026119102E-3</v>
+      </c>
+      <c r="P13" s="10">
+        <v>3.8378813599866902E-3</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>4.1109744722037699E-3</v>
+      </c>
+      <c r="R13" s="10">
+        <v>4.2838326557210604E-3</v>
+      </c>
+      <c r="S13" s="10">
+        <v>4.2165810267983097E-3</v>
+      </c>
+      <c r="T13" s="10">
+        <v>3.9458698519957399E-3</v>
+      </c>
+      <c r="U13" s="10">
+        <v>3.7458124767680398E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.77725999999999995</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.36867</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.32255</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.29565000000000002</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.27445999999999998</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.25613999999999998</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.23913999999999999</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.22388</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.21012</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.19780999999999899</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1.15828609016368E-2</v>
+      </c>
+      <c r="M14" s="10">
+        <v>1.6337074401495499E-3</v>
+      </c>
+      <c r="N14" s="10">
+        <v>2.5846770698784698E-3</v>
+      </c>
+      <c r="O14" s="10">
+        <v>3.19869765164927E-3</v>
+      </c>
+      <c r="P14" s="10">
+        <v>3.8204711751300899E-3</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>4.0925949388295503E-3</v>
+      </c>
+      <c r="R14" s="10">
+        <v>4.2937163390237999E-3</v>
+      </c>
+      <c r="S14" s="10">
+        <v>4.2073480694824498E-3</v>
+      </c>
+      <c r="T14" s="10">
+        <v>3.91997732419745E-3</v>
+      </c>
+      <c r="U14" s="10">
+        <v>3.7400089126453499E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.61075999999999997</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.34963</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.33045999999999998</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.31795999999999902</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.31395999999999902</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.30613999999999902</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.30691999999999903</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.30691000000000002</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.30409000000000003</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1.8857724618250599E-2</v>
+      </c>
+      <c r="M15" s="10">
+        <v>5.97049225590134E-3</v>
+      </c>
+      <c r="N15" s="10">
+        <v>6.90011272049633E-3</v>
+      </c>
+      <c r="O15" s="10">
+        <v>3.85002164496078E-3</v>
+      </c>
+      <c r="P15" s="10">
+        <v>7.0882061670542998E-3</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>6.1204938072384699E-3</v>
+      </c>
+      <c r="R15" s="10">
+        <v>5.0481679845266504E-3</v>
+      </c>
+      <c r="S15" s="10">
+        <v>5.6433736954650199E-3</v>
+      </c>
+      <c r="T15" s="10">
+        <v>4.9688921188619697E-3</v>
+      </c>
+      <c r="U15" s="10">
+        <v>9.0730369777709801E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.61538000000000004</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.35682000000000003</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.33335999999999999</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.32597999999999999</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.32099</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.32002000000000003</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.31941000000000003</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.32144</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.32368000000000002</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.31931999999999999</v>
+      </c>
+      <c r="L16" s="10">
+        <v>2.2893123664347498E-2</v>
+      </c>
+      <c r="M16" s="10">
+        <v>8.2114824754391594E-3</v>
+      </c>
+      <c r="N16" s="10">
+        <v>6.17273575221445E-3</v>
+      </c>
+      <c r="O16" s="10">
+        <v>6.9568191965389903E-3</v>
+      </c>
+      <c r="P16" s="10">
+        <v>9.9791393527809899E-3</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>1.07114476664506E-2</v>
+      </c>
+      <c r="R16" s="10">
+        <v>1.0470004775548001E-2</v>
+      </c>
+      <c r="S16" s="10">
+        <v>1.06306893264526E-2</v>
+      </c>
+      <c r="T16" s="10">
+        <v>1.1098828767036601E-2</v>
+      </c>
+      <c r="U16" s="10">
+        <v>1.2044436244359601E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U16">
+    <sortCondition ref="K2:K16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496D1A1F-012A-4917-AFE9-7B3AC93860EF}">
   <dimension ref="A1:W223"/>
   <sheetViews>
@@ -13797,7 +14926,7 @@
     <col min="3" max="16" width="11.46484375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="57">
+    <row r="1" spans="1:23" ht="71.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
